--- a/output/Total_time_range_data/甘肃省/庆阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/甘肃省/庆阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2366 +436,2590 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>284</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>庆阳市考察学习定西市草产业先进经验</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2018-05-30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_61282</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['5月28日-29日，庆阳市委副书记周普生、庆阳市副市长董涛率领市农牧局主要领导、分管领导，农业发展银行庆阳支行、农业银行庆阳支行、农商银行庆阳支行、甘肃银行庆阳支行、兰州银行庆阳支行负责人，庆城县、镇原县、华池县、环县分管农业领导，农牧（畜牧兽医）局局长，草原（畜牧）站长，部分试点乡（镇）党委书记或乡（镇）长，部分草产业、养殖企业（合作社）负责人组团参加考察团考察学习定西市草产业先进经验和做法。', '考察团一行先后深入青岚山乡青义村牧草基地、巨鹏草业公司、现代草业公司、民祥草业公司实地考察牧草产业种植情况，学习定西市“政府引导、主体运作、大户带动、千家万户联动” 精准脱贫、助农增收的思路，示范引领多个合作社组成联合社，形成了“亿邦合作社+各村小型合作社+基地+农户”的发展模式。一是流转土地助增收。以标准化种植、规模化经营、产业化发展为抓手，大力实施山地种草工程，既增加农户的收入又提高了山地牧草种植收益；二是订单收购助增收。按照“投犊育肥、协议收购”的方式，以“统一供种、统一供饲料、统一防疫”的运行模式，为群众解决销售难的问题，也保障了合作社的经营模式；三是折股量化助增收。按照“折股量化，入股分红”和“合作社+贫困户”的带动模式，既增加了贫困户的收入，又壮大了村集体经济；四是拓宽渠道助增收。积极探索“电商+”发展新模式，搭建网络销售平台，通过线上线下联合销售，多方位拓宽了农户增收渠道。考察团对定西市草产业模式给予了高度评价。', '考察结束后、庆阳市和定西市召开了草产业发展座谈交流会和草产业发展对接洽谈会议，两市就草产业合作和招商引资达成共识，引进定西市草产业龙头企业带动庆阳市草产业发展，保障肉羊产业扶贫饲草料供给。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>284</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>庆城县组团考察学习临夏民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2019-04-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_112421</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为了认真学习借鉴临夏回族自治州在争创全国民族团结进步示范州方面的好经验好做法，推动庆城县民族团结进步创建工作深入开展，4月8日至4月10日，庆城县委常委、统战部长门杜娟，副县长常文洲带领各乡镇及教育、公安、市场监管、工商联等部门负责人和相关工作人员一行34人，赴临夏州考察学习。', '考察组通过实地考察、听取介绍、翻阅资料等方式先后深入康乐县康乐中学、妇幼保健院、和政县云发集团、三合镇、人民法院、临夏市青少年学校校外活动中心、东区街道及和谐社区等示范单位，对临夏州开展民族团结进步创建等工作进行了实地考察学习，以此达到开阔视野，启迪思路，取长补短，促进自身发展的目的。', '通过此次考察学习，使大家充分感受到临夏州委、州政府及各市县真正把民族团结进步创建工作作为“一把手”工程和“民心工程”来抓，民族团结进步创建活动开展得有声有色，形成了民族和睦的社会氛围，有力促进了临夏州各项事业全面发展。大家在实地感受临夏各族人民手足相亲、守望相助的深厚情谊的同时，也接受了一次生动的民族团结教育。通过考察学习，看到了不足，寻找了差距，增加了压力，增添了动力，激发了活力，大家决心以此次学习考察活动为契机，积极借鉴临夏州的好经验、好做法，结合庆城县实际，打造一批样板工程，推动全国民族团结进步示范县创建工作。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>284</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>创建全国文明城市工作考察学习座谈汇报会召开</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2018-04-29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_46</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['创建全国文明城市工作考察学习座谈汇报会召开_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>284</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>黄泽元周继军带队赴郑州考察学习数字经济发展</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_4427</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['黄泽元周继军带队赴郑州考察学习数字经济发展_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>黄泽元带队赴天士力控股集团考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_220664</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['黄泽元带队赴天士力控股集团考察学习_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '6月30日，市委书记黄泽元带队前往位于天津市北辰区的天士力控股集团考察学习，并与北辰区委书记冯卫华和天士力创始人、天士力控股集团董事局终身荣誉主席、天津天士力大健康产业投资集团总经理吴迺峰座谈。', '黄泽元对北辰区和天士力控股集团长期以来为庆阳脱贫攻坚、乡村振兴和产业发展作出的贡献表示感谢。他说，东西部协作开展以来，天津市、区两级主动对接、真帮实扶，在资金支持、劳务协作、产业培育、干部交流等方面做了大量卓有成效的工作，对口支援干部、医疗卫生人员、老师及其他专业技术人员为庆阳发展尽心竭力，赢得了庆阳广大干部群众高度认可和交口称赞，我们深受感动、心怀感恩。天士力控股集团是民族企业，是天津市的企业，也是我们庆阳老乡创办的企业，在为天津经济社会发展作出巨大贡献同时，也为庆阳老区民生改善、基础设施建设、产业发展等方面给予了大力支持。亲戚要常来常往、越走越亲，希望天士力控股集团作为庆阳市和北辰区东西部协作的纽带，让两地合作更加紧密、更加深入，推动各项工作取得更大成效。', '冯卫华表示，北辰区将按照党中央和天津市、甘肃省部署要求，强化工作机制有效衔接，加强多层面交流，深化多领域合作，进一步推动两地优势互补、共同发展。', '吴迺峰表示，天士力控股集团将充分发挥桥梁纽带作用，进一步加强双方沟通对接和交流合作，为庆阳经济社会高质量发展作出应有贡献。', '座谈会后，黄泽元一行还实地考察了天士力控股集团现代中药智能制造车间、现代中药数字提取中心和华夏未来天人智慧项目。', '天士力控股集团总裁朱永红，副市长张鸿举，北辰区委常委、区委办主任张磊参加上述活动。', '黄泽元主持召开市委常委会会议 传达学习习近平总书记重要讲话精神 研究部署巡察反腐败和强县域等工作', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>庆阳市审计局赴广西云南考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_221776</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['近日，市审计局副局长张煜带领局办公室、社保科、党支部负责人一行四人赴广西南宁市审计局、百色市审计局及云南大理州市审计局就党建工作、党建与审计业务融合发展、文明单位创建、企业社保审计、大数据审计及优秀审计项目打造等方面工作进行专题考察学习。', '在南宁市审计局，考察组一行先后参观了该局文化长廊、党员活动室、廉政文化室、图书室、荣誉室、健身室建设，观看了党建工作宣传片，详细了解该局阵地建设、机关文化建设的工作思路、举措，听取该局医疗保险基金审计、政府投资审计开展情况介绍，并就医保审计数据采集运用、医保审计组织方式和成效成果、政府投资审计职能转型、信息宣传工作和党建创新等方面进行了交流。', '在百色市审计局，考察组一行先后到该局荣誉室、阅览室、党员活动室、民族团结进步示范展示区等场所进行实地察看。观看了该局文明单位创建纪录片，全国优秀审计项目案卷。在随后召开的座谈会上，该局就财政预算执行审计、政府投资审计、全国文明单位创建和机关党建工作开展情况等作了详细介绍，双方就财政预算审计全覆盖、大数据采集运用、跟踪审计存在的困难和问题、文明单位考评细则和党建创新等方面进行了研讨交流。赴百色起义纪念馆开展了联合主题党日活动。', '在大理州审计局、大理市审计局，考察组一行重点参观了该局文化长廊、荣誉室等，现场交流了购买审计服务、审计人员统筹发展、大数据采集运用、党风廉政建设工作。', '通过学习，大家一致认为，四个地方审计局的工作思路新、举措实、力度大，成效好，对我局进一步夯实党建工作基础，拓宽文明单位创建思路，创新审计工作方式方法，提高审计业务质量，推动我市审计工作创新发展具有极大地学习、借鉴和参考价值。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>黄泽元周继军带队赴郑州考察学习数字经济发展</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_240317</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['黄泽元周继军带队赴郑州考察学习数字经济发展_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '2月13日至14日，市委书记黄泽元，市委副书记、市长周继军带队赴河南省郑州市考察学习数字经济发展。', '14日上午，黄泽元、周继军与郑州市委副书记、市长何雄座谈，双方就深化数字经济领域全面合作、推进两地协同发展进行深入对接。', '黄泽元说，郑州区位优势明显，是全国重要的信息通信枢纽与信息集散地，数字经济发展生机蓬勃。庆阳当前正在全力推进全国一体化算力网络国家枢纽节点建设，加快实施“东数西算”工程，建设数据中心集群，努力打造全国算力保障基地。希望两市共同抢抓构建新发展格局战略机遇，进一步加强沟通对接，积极寻求算力供需契合点，协同打造跨区域城市算力网，加强多领域多层次多形式的合作交流，携手开创合作共赢新局面。我们将创造最优良的营商环境，成立工作专班，主动联系对接，强化要素保障，全力推动两市合作取得实质性突破。', '何雄说，近年来，郑州以加快推进5G、工业互联网等新基建为抓手，统筹布局算力基础设施，培育壮大数字产业集群，深度推进网络强市和数字郑州建设，将互联网基础设施优势转化为信息枢纽经济优势，推动数字技术与实体经济深度融合，加快培育发展新动能，赋能高质量发展。庆阳是全国一体化算力网络国家枢纽八大节点之一，是西北地区算力输出和数据计算基地，双方合作空间广阔，期待两市未来在建设城市算力网络、构建算力产业生态等领域开展务实合作，结出丰硕成果。', '在郑期间，黄泽元、周继军一行还实地考察了高新区天健湖智联网产业园、紫光计算机科技有限公司、新华三大数据技术有限公司、国家超级计算郑州中心、超聚变数字技术中心，详细了解郑州市在推动数字经济发展等方面的经验和做法。', '黄泽元在全市“三抓三促”行动动员暨优化营商环境讲评推进大会上强调 直面短板弱项顽瘴痼疾 切实转变作风提升效能 以实际行动为庆阳高质量发展赋能', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>284</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>庆阳市赴嘉峪关金昌兰州学习考察创建全国文明城市工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2018-04-26</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_60505</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['庆阳市赴嘉峪关、金昌、兰州学习考察创建全国文明城市工作_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '考察组一行先后实地参观了嘉峪关实验小学、昌盛社区、城市博物馆、东湖生态主题公园、诚信一条街，金昌市地税局地税大厅、道德街、金川总校第六小学、金水里社区、科技馆、龙泉花园小区，兰州市城运处、交警支队指挥中心、五泉菜市场、七里河区建兰路社区、七里河区家风家训馆等场所，学习了三个城市在城市管理、公益广告、文明交通、未成年人思想道德建设、社区管理、市场运营及管理、志愿服务活动、环境整治等方面的先进经验和做法。每到一处，考察团成员都能够用心聆听，详细询问，坦诚交流，深刻领悟。 考察组一行参观兰州五泉菜市场 图片来源：庆阳市文明办 在考察学习中，闫晓峰要求，要通过此次考察活动，认真学习，深入思考，紧密结合我市实际，找出差距，切实把三个城市在创城工作中的好经验、好做法融入到我市创城工作之中，紧盯创建目标，坚持问题导向，突出工作重点，扭住关键环节，细化工作方案，弥补工作短板，严格落实层级督查制度，确保创建全国文明城市各项工作任务落实到位。（庆阳市文明办）', '考察组一行先后实地参观了嘉峪关实验小学、昌盛社区、城市博物馆、东湖生态主题公园、诚信一条街，金昌市地税局地税大厅、道德街、金川总校第六小学、金水里社区、科技馆、龙泉花园小区，兰州市城运处、交警支队指挥中心、五泉菜市场、七里河区建兰路社区、七里河区家风家训馆等场所，学习了三个城市在城市管理、公益广告、文明交通、未成年人思想道德建设、社区管理、市场运营及管理、志愿服务活动、环境整治等方面的先进经验和做法。每到一处，考察团成员都能够用心聆听，详细询问，坦诚交流，深刻领悟。', '在考察学习中，闫晓峰要求，要通过此次考察活动，认真学习，深入思考，紧密结合我市实际，找出差距，切实把三个城市在创城工作中的好经验、好做法融入到我市创城工作之中，紧盯创建目标，坚持问题导向，突出工作重点，扭住关键环节，细化工作方案，弥补工作短板，严格落实层级督查制度，确保创建全国文明城市各项工作任务落实到位。（庆阳市文明办）', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>284</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>学习考察开视野拓展思路谋发展</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-04-10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_112427</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为进一步掌握档案工作发展方向，明确机构改革后档案工作职责，借鉴先进管理经验，查找不足，补齐弱项，开阔干部视野，拓宽思路，提升档案工作管理能力和业务水平，4月1日至4日，镇原县档案馆组织干部赴庆阳市内各县区档案馆进行学习考察。', '首先，实地学习参观了各县区档案馆的功能布局、馆室面积、设施配套、安全保密、档案库房、查阅整理、数字化建设及特色展馆等，在部分县区还对新建档案馆楼、省一级、省特级规范化管理立档单位进行了现场学习考察，重点学习了解其档案馆馆藏和管理、查阅利用、档案编研及档案展馆的开发利用等方面的经验做法。', '随后还召开了座谈会，听取了各县区档案馆负责同志对档案馆资源建设、档案文化创新、重点档案抢救和特色档案征集整理宣传等方面的工作介绍，了解了各县区档案工作的特点、经验、经费保障及适应机构改革及时调整工作职能确保档案工作持续发展方面的做法。同时，就档案业务建设、档案数字化建设以及档案馆基础设施建设等方面与各县区档案馆进行了广泛深入的交流，对档案资源建设和开发保管利用等问题进行了认真探讨。', '通过学习考察，开阔了视野，更新了观念，拓宽了思路，查找了不足。县档案馆将以此次学习考察为契机，攻坚克难，真抓实干，改进不足，全力提升我县档案管理工作水平，促进档案工作高质量发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>中国社科院甘肃挂职干部考察团来庆阳市学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-11-14</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_103555</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['中国社科院甘肃挂职干部考察团来庆阳市学习考察_政务要闻_庆阳动态_政务_庆阳市人民政府', '庆阳网讯（见习记者 南力）11月12日至13日，中国社科院马克思主义研究院副院长、研究员、酒泉市委副书记樊建新，中国社科院拉美所副所长、研究员、嘉峪关市委副书记王荣军，带领中国社科院在甘肃酒泉、嘉峪关、武威挂职干部考察团来我市学习考察文化旅游产业发展情况。市委常委、市委宣传部部长闫晓峰陪同。', '考察团首先前往华池县南梁革命纪念馆、抗大七分校旧址、军民大生产纪念馆，缅怀革命先烈，接受革命传统教育。随后，考察团一行前往庆城县、镇原县、西峰区，参观了周祖农耕文化产业园、岐黄中医药文化博物馆、庆州古城药王洞养生小镇、北石窟寺、北石窟驿文化景区、陇东学院等地。每到一处，考察团成员仔细听取情况介绍，了解我市的历史、文化、经济和社会发展情况，并就红色旅游资源开发、全域旅游、岐黄文化发展等与市、县干部深入交流。', '考察团认为，近年来，庆阳市认真贯彻落实“五大发展理念”，把文化旅游产业作为转方式、调结构的优先方向，着力促进文化旅游产业融合发展，精心打造了一大批旅游景点，有效带动了文化旅游产业发展，值得学习借鉴。考察团建议，庆阳市要按照既定思路，围绕乡村振兴战略，进一步发挥特色优势，加快生态建设和全域旅游的良性互动发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>284</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>庆城县选派技术干部赴天津开展东西部协作学习考察活动</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_288041</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['庆城县选派技术干部赴天津开展东西部 协作学习考察活动_部门动态_政务_庆阳市人民政府', '为深化“促增长，强县域”目标，促进东西部协作交流，提高干部干事创业本领，服务县域经济高质量发展。3月18日，由庆城县委组织部牵头，县科技局参与，选派4名专业技术干部赴天津市南开区科技局、天开高教科创园及相关科研院校开展学习考察活动。', '学习考察组首先到南开区科技局，围绕我县主导产业和特色产业，在科技项目合作、科研成果转化、科技型企业培育等方面进行深入交流，学习借鉴南开区科技创新工作的先进经验和做法。在天开高教科创园，学习考察组深入综合服务中心“一站式”政务服务大厅、成果展示多功能厅和科技型企业，详细了解园区整体布局、要素保障和运营模式，就科研成果转化、创新平台建设、科技金融服务和产学研用等方面向相关企业负责人进行了广泛交流。', '下一步，考察组将围绕我县产业发展需求，在机械装备制造及油气产建配套服务，文化旅游及中医药大健康，农产品及食品精深加工，新能源开发利用及数字经济配套制造等方面加强与相关企业进行对接洽谈，把先进的技术、管理经验和发展模式嫁接到庆城，积极培育和发展新质生产力，形成东西部协作区域协调发展、协同发展、共同发展的良好局面。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>284</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>闫晓峰带领考察团赴白银平凉学习考察教育工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019-08-31</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_120991</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['闫晓峰带领考察团赴白银 平凉学习考察教育工作_政务要闻_庆阳动态_政务_庆阳市人民政府', '8月28日至29日，市委常委、市委宣传部部长闫晓峰带领市组织、编办、教育、人社、财政等部门负责同志，赴白银、平凉学习考察教育工作。', '考察团一行先后在会宁一中、会宁教育展馆、静宁一中、文萃中学、静宁文屏教育园、平凉职业技术学院、平凉一中进行实地学习考察，并围绕教师队伍建设、职称评聘、促进教育均衡发展等工作，在会宁一中、静宁一中、平凉一中进行了座谈交流。', '考察团了解了会宁县、静宁县和平凉市先进教育理念和成功办学经验、鲜明办学特色、良好校风学风以及饱含人文气息的校园文化和优异的教育教学质量，尤其是当地党政领导特别重视教育工作，全社会支持教育工作氛围浓厚，学校管理者的创新胆略及务实作风，给考察团成员留下了深刻印象。考察团表示，白银市、平凉市在推动教育事业发展方面的好经验好做法，对促进我市教育工作有很多值得学习和借鉴的地方，希望今后两地进一步拓宽合作领域，提高合作层次，丰富合作形式，共同推动教育事业持续健康发展。', '庆阳市统战系统学懂弄通做实习近平总书记关于加强和改进统一战线工作重要思想交流研讨会召开', '李银在市政协第276号提案办理协商会议上强调发挥优势 积极履职 不断提高政协提案工作水平', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>庆阳市科技局赴天津市学习考察科技成果转化和技术经纪人队伍建设工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-05-14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_294739</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['庆阳市科技局赴天津市学习考察科技成果转化和技术经纪人队伍建设工作_部门动态_政务_庆阳市人民政府', '5月8日至10日，市科技局党组书记、局长谭文枫带领陇东学院科技处、市农科院、市林科所分管负责同志和相关工作人员，赴天津市考察学习科技成果转化和技术经纪人队伍建设等工作。', '考察组先后参观学习了天津市农科院、天开高教科创园、中国民航大学科技园等科研机构在科技成果转移转化方面的先进经验和有效做法，并赴天津市科学技术信息研究所和天津联创科技发展有限公司详细了解了技术市场网络平台建设运营等情况。随后，考察组与天津市科技局相关处室、天津市农科院、国家技术转移人才培养基地（天津）负责同志围绕科技成果转移转化、津甘科技协作、技术市场和经纪人队伍建设方面进行了座谈交流。', '考察组一致认为，天津市科技局在贯彻落实国家创新驱动发展战略、加速科技成果转移转化、加快技术经纪人队伍建设等方面政策保障有力、激励措施有效，大家深受启发。下一步，市科技局将充分运用这次学习考察成果，结合我市实际，广泛吸纳天津市的好经验、好做法，聚焦省级科技成果转移转化示范区各项任务，加快科技成果转化载体建设，积极推进技术经纪人队伍建设，不断完善成果转移转化服务体系，加强部门间沟通衔接，开阔思路，优化政策，持续深化职务科技成果改革，落实转化收益分配机制，畅通成果转化通道，充分激发科研人员活力。积极引进培育专业化技术转移机构，组建技术经纪人队伍，促进更多更好的科技成果在我市转化落地，提高科技成果产业化发展水平。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>284</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>省林草局调研庆阳市林业碳汇项目开发并前往陕西省商洛市林业局进行学习考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_295334</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['省林草局调研庆阳市林业碳汇项目开发并前往陕西省商洛市林业局进行学习考察_部门动态_政务_庆阳市人民政府', '5月14日至17日，甘肃省林草局二级巡视员喻文健调研庆阳市林业碳汇项目开发。并带领庆阳市县林草部门相关负责人前往陕西省商洛市林业局进行学习考察。', '调研期间，在庆阳市林草局举行了“庆阳市林业碳汇开发座谈会”，省林草局造林绿化处二级调研员陈旺萍主持会议，市林草局党组书记、局长李华峰出席并汇报了庆阳市林业碳汇开发情况，省林业科学研究院副院长蔡国军、市林草局副局长路涛参加会议。', '调研组指出，庆阳市委、市政府高度重视林业碳汇开发工作，庆阳市不论是林草湿基础数据调查摸底，还是林业碳汇开发都走在了全省前列，探索出的“支付技术服务费不分成”的林业碳汇开发模式为当前全省林业碳汇开发闯出了新路子，不仅解决了林业碳汇开发技术不足的难题，也有效保护了国有资产和林农权益。庆阳市林业碳汇工作专班工作制度在全市碳汇开发工作中发挥了积极作用，为全省当前林业碳汇工作开展提供经验参考，市县林草部门要充分发挥相应专班作用，全力抓好碳汇管理工作。', '调研组强调，林草部门作为践行习近平总书记“绿水青山就是金山银山”理念的重要部门，要全面贯彻“四库”要求，在国家林业碳汇开发程序尚未完善前，要审慎进行林业碳汇开发。市县林草部门可以在试点的基础上为全面开发积累经验和技术力量，要让林草专业技术人员在碳汇开发工作实践中实现技术提升、能力提升，为将来林业碳汇开发奠定基础。同时市县林草部门要拓展思路积极探索林草生态价值转换方式，通过开展国土绿化行动，打好三北攻坚战，不断提升林草生态系统固碳增汇能力，为碳达峰碳中和目标实现贡献林草力量。', '在陕西省商洛市学习考察期间，同商洛市林业局进行了座谈，会议由商洛市林业局副局长田红俊主持，国家林草局西北院碳汇处处长徐干君，甘肃省林草局、庆阳市林草局学习考察工作组全体人员以及商洛市林业局相关科室负责人参加了座谈会。', '在座谈会上，田红俊对商洛市CCER林业碳汇项目进行了介绍，徐干君代表技术服务方详细介绍商洛市CCER林业碳汇项目开发情况，路涛对庆阳市情和林草现状进行了介绍，参会人员就林业碳汇以及CCER项目开发过程中存在的难点和疑惑进行了座谈交流。', '省林草局二级巡视员喻文健在总结发言时讲到，商洛市CCER林业碳汇项目作为陕西省首单实现交易的CCER林业碳汇项目，对陕西省乃至西北地区碳汇开发交易都具有至关重要的指导作用，因此甘肃省林草局、庆阳市林草局对这次考察学习都十分重视和珍惜，希望学习陕西商洛林业碳汇开发先进经验，为甘肃省林业碳汇开发走出一条稳妥高效之路。国家林业局西北院作为林草部门技术力量的第一梯队，先后开发成功多个林业碳汇项目，并实现了交易收入，为甘肃省林业碳汇开发技术服务方确定增加了一个很好的选项，希望西北院能在甘肃省林业碳汇开发和零碳林草项目建设中发挥积极作用。', '发展绿色旅游 倡导文明旅游 携手营造庆阳美好旅游环境——市区两级文旅部门联合开展“5.19中国旅游日”主题宣传活动', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>284</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>镇原县组织考察学习组赴上海浙江考察学习放管服改革工作</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2018-09-27</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_75968</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['镇原县组织考察学习组赴上海、浙江考察学习“放管服”改革工作_县区动态_政务_庆阳市人民政府', '为了借鉴学习上海市、浙江省“放管服”改革工作的先进经验和做法，推动我县“放管服”改革工作取得新进展，按照甘肃省人民政府办公厅《关于“外学先进内树典型”推进营商环境优化的通知》要求，9月16日至20日，由县政管办牵头，带领县审改办、县政务中心、县发改局等部门单位负责人组成考察组，赴上海市徐汇区、长宁区，浙江省嘉兴市南湖区、杭州市和义乌市等地考察学习“放管服”改革工作。', '通过现场考察各地政务服务大厅，与部门座谈讨论，和窗口工作人员深入交流等方式，重点就政务服务大厅管理运行、“最多跑一次”改革、“一窗通办”改革、投资项目审批改革、政务服务网建设、“12345”政务服务热线运行、公共资源交易中心建设和中介服务机构管理等深化“放管服”改革方面的先进经验进行了深入细致地了解。', '通过考察，我们学习到了上海、浙江在抓“放管服”改革工作上的五大特点。一是领导高度重视，机构组织健全；二是推行“一窗受理”，政务大厅建设标准高；三是网上平台建设完善，实现了数据互联共享；四是突破审批难点，投资项目实现提速增效；五是推动政务服务向基层延伸，实现政务服务就近能办。浙江省是改革开放的先行地，是习近平总书记全面深化改革重要思想的萌发地，在“放管服”工作中已成为“审批事项最少、办事效率最高、政务环境最优、群众和企业获得感最强”的省份，尤其在推进“最多跑一次”和打造“移动办事之城”等方面有创新。', '通过考察，使我们解放了思想，深化了认识，开阔了眼界，找到了差距，理清了思路，获益匪浅，收获颇多，为我县今后更好地抓好“放管服”改革工作奠定了基础。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>庆阳市委宣传部来到竹林村考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019-04-19</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_112928</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['庆阳市委宣传部来到竹林村考察学习_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '4月18日，庆阳市委宣传部常务副部长梁建伟一行来到新丰镇竹林村考察学习新时代文明实践建设工作，市文明办副主任施俊法、市文明办未思处处长任晓根等陪同。 考察团一行实地参观了竹林村史馆、高以永史料陈列馆，认真听取竹林村党委书记陈云华对于家风家训、廉政文化、新丰乡贤等相关内容介绍。考察团人员表示，通过此次学习，对下步庆阳市新时代文明实践中心建设工作起到一定作用。（南湖新丰）', '4月18日，庆阳市委宣传部常务副部长梁建伟一行来到新丰镇竹林村考察学习新时代文明实践建设工作，市文明办副主任施俊法、市文明办未思处处长任晓根等陪同。', '考察团一行实地参观了竹林村史馆、高以永史料陈列馆，认真听取竹林村党委书记陈云华对于家风家训、廉政文化、新丰乡贤等相关内容介绍。考察团人员表示，通过此次学习，对下步庆阳市新时代文明实践中心建设工作起到一定作用。（南湖新丰）', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>贠建民卢小亨率团赴天士力控股集团考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2020-08-14</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_2100</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['贠建民 卢小亨率团赴天士力控股集团考察学习_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>284</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>西峰区农业农村局考察学习庆城县乡村振兴有效衔接资金使用情况</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-10-12</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_267654</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['西峰区农业农村局考察学习庆城县乡村振兴有效衔接资金使用情况_县区动态_政务_庆阳市人民政府', '10月10日，由西峰区农业农村局副局长胡小东、区农经局负责人等组成的西峰区乡村振兴有效衔接资金考察学习团考察学习庆城县乡村振兴有效衔接资金使用中科学严谨的做法和取得成功的经验，以便于改进工作方法、工作措施和工作经验上的不足。县农业农村局负责同志、县动物疫病预防控制中心负责人陪同考察。', '考察团一行先后深入庆城县奔发养殖农民专业合作社、庆城县金诚果蔬有限公司，通过实地查看、听取介绍、现场交流等方式，认真听取“331+”羊场建设和合作社运营经验介绍，考察团就关心的“331+”模式入股分红问题详细了解了合作社制度建设、运营管理、利益联结机制和带贫作用发挥情况，全面学习了解庆城县在乡村振兴有效衔接资金使用优秀的做法和取得成功的经验，进一步提高了认识，坚定了信心。', '考察团认为，庆城县积极转变乡村振兴有效衔接资金使用思路，一手减轻农民负担，一手制订产业帮扶方案，把湖羊养殖作为重点产业，将三类户和产业链接起来。通过群众普遍参与合作社入股分红，加大乡村帮扶覆盖面，提升帮扶产业发展力度，不仅可以解决三类户就业问题，在乡村振兴阶段继续使用这一模式滚动发展，进一步确保了群众收入稳定，产业发展稳定。', '考察团表示，通过本次考察学习，进一步开阔了视野，理清了产业发展思路，一定会把先进的经验和措施带回去，进一步指导西峰区农业产业发展，努力探索适合当地产业发展、农业增效、农民增收的发展新路径，并继续加强兄弟县区交流协作，共谋发展，共同推动农业产业提档升级，有效助推乡村振兴。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>284</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>临夏州考察团到环县考察学习肉羊产业发展情况</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020-04-16</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_1752</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['临夏州考察团到环县考察学习肉羊产业发展情况_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>284</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>庆阳市组团考察学习静宁县苹果产业发展情况</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2019-10-22</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_123846</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['庆阳市组团考察学习静宁县苹果产业发展情况 _政务要闻_庆阳动态_政务_庆阳市人民政府', '10月18日至19日，市委副书记卢小亨带领我市县区分管领导、苹果生产重点乡村负责人和果业合作社代表，赴静宁县考察学习了苹果产业发展情况。', '两天来，卢小亨一行先后考察了静宁县李店河流域10万亩山地苹果示范园、欣叶电子商务孵化园、红六福果业公司等10个现代苹果生产示范点，并参观了第五届静宁苹果节果品展。每到一处，考察团成员都认真听取介绍，与当地技术人员探讨交流，详细了解静宁县在标准化基地建设、果园管理、品牌打造、电商营销、产业链延伸等方面的先进经验。', '考察结束后，卢小亨在静宁县主持召开考察学习心得交流会。会上，邀请静宁县委书记王晓军介绍了静宁苹果产业发展情况，静宁县果树专家介绍静宁苹果主栽品种、主推技术及主要栽培模式，贾河乡党委负责人介绍乡镇抓苹果产业的主要做法。考察团部分成员交流了学习体会和下一步的打算。', '卢小亨说，静宁是全国、全省苹果产业发展的标兵、排头兵，“小苹果”不仅鼓了农民的“钱袋”，而且富了政府的“财源”，成了富民强县、乡村振兴的支柱产业，这一成就得益于从20世纪80年代县委、县政府就把苹果产业确定为农民增收致富主导产业的“眼力”，得益于数届县委、县政府“三十年谋一果”的战略“定力”与工作“接力”，得益于行政推动、干群联动、科技驱动、保障拉动、龙头带动、品牌促动形成的工作“合力”，得益于实施农业供给侧结构性改革“八新”“三个转变”的产业“创新力”和县委、县政府久久为功、绵绵用力抓落实的“功力”。', '卢小亨表示，要进一步学习、消化和吸收借鉴静宁苹果产业发展的成功经验，认真谋划，奋起追赶，按照全产业链、全价值链、全循环链、全供应链的理念，着力建基地、抓培训、强管理、提品质、树品牌、创市场、促效益，努力把苹果产业做成富民强市的主导产业，把我市打造成国家农业科技园区最优质的苹果生产基地。', '庆阳市人大常委会党组召开贯彻落实《中共甘肃省委关于修复净化庆阳市党内政治生态的意见》安排动员会', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>284</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>庆阳市国土资源局组织华池县乔河乡干部群众考察学习肉羊产业</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2018-03-09</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_35603</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['庆阳市国土资源局组织华池县乔河乡干部群众考察学习“331+”肉羊产业_部门动态_政务_庆阳市人民政府', '华池县乔河乡张岔村是庆阳市国土资源局去年9月新调整的帮扶村，该村地处山区，耕地质量偏低，劳动力匮乏，群众脱贫缺少产业支撑。为积极响应全市推广“331+”肉羊产业的决策部署，推动张岔村培育发展支柱产业，3月7日，庆阳市国土资源局组织华池县乔河乡干部群众40多人，外出考察学习“331+”肉羊产业，并邀请市畜牧中心主任高宪儒随行讲解指导。', '考察组先后赴庆城县、西峰区和环县，参观了庆城驿马中盛产业园、西峰彭原中盛羊业2个专业羊场和庆城兴富养殖、环县豪顺养殖2个农民专业合作社。每到一处，乔河乡干部群众都认真听取羊场建设和合作社运营经验介绍，仔细查看羊场设施和湖羊养殖情况，并就关心的“331+”模式入股分红、湖羊购买、喂养、繁殖和销售等问题踊跃提问咨询，认真学习记录。当天晚上，在华池县乔河乡政府召开了考察座谈会。会议讨论了庆阳市国土资源局拟定的《支持张岔村“331+”湖羊产业山地模式建设方案》，围绕“为什么发展湖羊产业、养殖湖羊需要什么条件、为什么推广‘331+’模式”作了深入宣讲，帮助群众增加对“331+”肉羊产业模式的了解，进一步提高认识，坚定信心，积极参与，为实现稳定脱贫奔小康打牢产业基础。', '参加培训的干部群众纷纷表示，通过考察学习，开阔了眼界，增强了信心，将积极动员亲戚朋友和村里的群众参加到“331+”肉羊产业中来，为建设湖羊专业合作社添油加力。华池县乔河乡张岔村种养殖大户李世峰及其父亲李兴忠，是庆阳市国土资源局帮扶的贫困户，他在座谈会上介绍了近年来种植红盖谷、养殖肉驴的成功经验，并激动的表示，经过帮扶干部和技术专家的多次现场指导以及这次外出学习参观，进一步坚定了创办湖羊养殖专业合作社的信心和决心，将倾其所能，力争合作社早日建成运行。', '3月8日上午，庆阳市国土资源局又组织相关技术工作人员到李世峰家中，再次踏勘合作社建设场地情况，进一步细化完善建设方案。', '近期，为坚决贯彻市委市政府推广实践“331+”精准脱贫新模式的总体部署，庆阳市国土资源局多次专题学习研究，进村入户调研座谈，依据山区实际，提出了“因地制宜、因陋就简、实用环保、突出效益、示范引领、带动脱贫”的工作思路，拟定了工作方案，支持张岔村创建千只规模湖羊养殖农民专业合作社，带动贫困农户脱贫致富。下一步，庆阳市国土资源局将依托“围庄造田”土地整治项目，平整土地、修建道路，通过单位帮合作社、职工帮贫困户、支部结对共建，帮助张岔村解决好湖羊养殖产前产中产后各种问题，确保按期按要求完成脱贫攻坚帮扶任务。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>284</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>正宁县医疗保障局召开赴天津北辰考察学习成效交流会</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2020-07-21</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_140644</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['7月20日，正宁县医疗保障局召开赴天津北辰考察学习成效交流会。赴天津市北辰区考察学习的23名局机关干部进行了交流发言和相互探讨学习。', '会上，23名参会干部依次将在天津市北辰区学习观摩、座谈交流的所见、所听、所想，结合自己工作进行了充分交流。通过交流，大家一直认为，通过在天津市北辰区考察学习，开拓了视野，增长了见识，丰富了思想，拓展了思路，对比中找到了存在差距，增强了扬长避短，奋力追赶的紧迫感。同时，被天津北辰区医保同仁和第三方培训公司员工的那种求真务实、开拓进取、认真负责、精益求精的躬行正道,至诚至善的工作理念和精神，深深感动，从交流发言中流露出了大家强烈的自我革新和奋发有为的战斗气息。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>284</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>贠建民卢小亨率团赴天士力控股集团考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020-08-15</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_142002</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['贠建民卢小亨率团赴天士力控股集团考察学习_政务要闻_庆阳动态_政务_庆阳市人民政府', '8月13日，市委书记贠建民，市委副书记、市长卢小亨带领庆阳市党政代表团前往天士力控股集团考察学习。', '贠建民一行先后深入天士力国际交流中心、大健康文化景观、智慧药房配送中心及聚智健康大数据共享中心、健康展览体验馆、党建展厅和华夏未来天人智慧幼儿园，就中医药产业发展、医养结合、企业党建等工作进行实地考察。', '随后，天士力控股集团董事局主席闫希军主持召开座谈会，双方就进一步深化合作交换意见。', '贠建民向天士力控股集团长期以来对庆阳老区脱贫攻坚、产业发展、医疗卫生和乡村旅游等领域的关心和支持表示感谢。他说，天士力集团多年来一直心怀老区贫困群众，把企业自身发展同脱贫攻坚紧密相连，竭尽全力为群众搞产业、办实事，使越来越多的群众在脱贫路上有了稳定的致富门路。希望天士力集团进一步深化双方在中医药产业、美丽乡村建设、智慧医疗、智慧教育等方面的合作交流，助力庆阳老区脱贫攻坚和经济社会发展。庆阳市将定期研究双方合作过程中遇到的困难和问题，切实抓好服务指导、督促检查等工作，不断开创地企合作共赢新局面。', '卢小亨说，天士力集团是中药现代化、国际化领军企业，今天到天士力集团考察学习，开阔了眼界、增长了见识、受到了教育。庆阳资源富集，文化底蕴深厚，市场前景广阔。希望天士力集团充分发挥自身优势，在发展大健康产业、推进智慧医疗平台建设、发展幼教事业等方面进一步加强对接交流，力争双方合作取得新的更大成果。', '闫希军向庆阳市委、市政府对双方合作的高度重视和大力支持表示感谢。他表示，将一如既往关心和支持家乡经济社会发展，推进双方各领域合作取得实质性成果。', '当天上午，贠建民、卢小亨一行还前往天津市北辰区沃德传动（天津）股份有限公司、天津雷沃动力股份有限公司、东赵庄村曙光水镇项目进行了实地考察。', '天津市合作交流办副主任刘庆纪，天津市北辰区委书记冯卫华，区委副书记、区长王宝雨及区领导陈永义、李洪东、庞镭；庆阳市领导张懿笃、柴春，市委秘书长吕世福，市政府党组成员段登云参加考察学习活动。', '卢小亨主持召开市政府党组（扩大）会议暨理论学习中心组学习会议 传达学习习近平总书记重要讲话和指示精神等 研究安排贯彻落实工作', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>284</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>庆阳市考察团一行赴咸阳市西安市考察学习教育工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2020-08-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_142758</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['庆阳市考察团一行赴咸阳市西安市考察学习教育工作_政务要闻_庆阳动态_政务_庆阳市人民政府', '8月26日至28日，市委常委、市委宣传部部长闫晓峰带领考察团一行赴陕西省咸阳市、西安市考察学习教育工作。咸阳市委常委、市委宣传部部长马俊民、西安市委常委、市委宣传部部长张琳分别陪同考察。副市长杨廷祯参加在西安市的考察活动。', '考察团一行先后在咸阳市文林学校、彩虹第二中学，西安市大学南路小学、铁一中、高新第二学校、高新一中、后宰门小学、西安第八十九中学，实地参观考察学校校园环境和校园文化建设，深入了解8所学校近年来的发展历程和未来发展规划，重点学习了几所学校在深化“名校+”教育联合体、“名师+”研修共同体、“名校长+”领航研修共同体、教师队伍培养、教学质量提升及多样化特色办学等方面的成功经验和做法。并分别在咸阳市彩虹第二中学、西安市铁一中、第八十九中学召开座谈会。', '考察团认为，西安、咸阳市委、市政府高度重视教育工作，坚持教育优先发展，坚决扛起“教育是国之大计、党之大计”的时代责任，以创新、务实、担当的工作作风，在实施城乡教育一体化发展、新时代立德树人、基础教育“三名+”推进、义务教育提质发展、普通高中标准化建设等方面补短板、创特色、出亮点，值得认真学习和充分借鉴。', '考察团表示，我市教育工作将以此次考察学习为契机，坚持问题导向，对标咸阳市、西安市先进教育理念和成功办学经验，进一步加强顶层设计，深化与两市的交流协作和教师培训，着力破解教育发展体制机制障碍，不断完善支持教育发展相关政策文件，落实好教育改革发展各项措施，提高教育教学质量，推动教育高质量发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>284</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>庆阳市巴家咀水库专用水文站赴黄委会太白水文站考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_249514</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['庆阳市巴家咀水库专用水文站赴黄委会太白水文站考察学习_部门动态_政务_庆阳市人民政府', '为提升水文测报能力和质量开拓新思路，5月4日，巴家咀水文站赴黄委会太白水文站考察学习。', '第一站在西峰水文局详细了解了水文局基层水文服务体系建设、运行管理、现代化在线测流设施设备应用、数字水文建设等工作。', '随后到太白水文站现场参观了新建的无人值守雷达在线测流系统。该系统通过布置在测流断面上传感器探头，采集测速垂线上的水面流速，再由标定系数推算出断面平均流速，并结合水位推算出测流断面的过流面积，由断面平均流速和过流面积计算流量。', '通过本次考察学习，为市巴家咀水库专用水文站在水文现代化建设、数字孪生水文站建设、加强行业发展能力等方面工作提供了有益借鉴。巴家咀水文站将进一步拓展新思路，吸收新理念，引进新技术，不断推动水文测验工作高质量发展迈上新台阶。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>庆阳市考察团一行赴咸阳市西安市考察学习教育工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_142867</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['庆阳市考察团一行赴咸阳市西安市考察学习教育工作_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '8月26日至28日，市委常委、市委宣传部部长闫晓峰带领考察团一行赴陕西省咸阳市、西安市考察学习教育工作。咸阳市委常委、市委宣传部部长马俊民、西安市委常委、市委宣传部部长张琳分别陪同考察。副市长杨廷祯参加在西安市的考察活动。', '考察团一行先后在咸阳市文林学校、彩虹第二中学，西安市大学南路小学、铁一中、高新第二学校、高新一中、后宰门小学、西安第八十九中学，实地参观考察学校校园环境和校园文化建设，深入了解8所学校近年来的发展历程和未来发展规划，重点学习了几所学校在深化“名校+”教育联合体、“名师+”研修共同体、“名校长+”领航研修共同体、教师队伍培养、教学质量提升及多样化特色办学等方面的成功经验和做法。并分别在咸阳市彩虹第二中学、西安市铁一中、第八十九中学召开座谈会。', '考察团认为，西安、咸阳市委、市政府高度重视教育工作，坚持教育优先发展，坚决扛起“教育是国之大计、党之大计”的时代责任，以创新、务实、担当的工作作风，在实施城乡教育一体化发展、新时代立德树人、基础教育“三名+”推进、义务教育提质发展、普通高中标准化建设等方面补短板、创特色、出亮点，值得认真学习和充分借鉴。', '考察团表示，我市教育工作将以此次考察学习为契机，坚持问题导向，对标咸阳市、西安市先进教育理念和成功办学经验，进一步加强顶层设计，深化与两市的交流协作和教师培训，着力破解教育发展体制机制障碍，不断完善支持教育发展相关政策文件，落实好教育改革发展各项措施，提高教育教学质量，推动教育高质量发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>284</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>庆阳市赴兰州天水等地考察学习军休工作</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-11-23</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_170598</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为进一步做好军休服务管理工作，规范服务内容、创新服务方式，学习兄弟市州好经验、好做法，11月20日至22日，市退役军人事务局先后赴兰州市军休三所和天水市军休所，对军休机构基础设施建设情况进行了考察学习，并就如何抓好军休干部“两个待遇”落实、搭建军休活动平台、强化军休服务管理等方面进行了交流探讨。', '通过此次参观学习，开阔了视野，拓宽了工作思路。下一步，将学习借鉴兄弟市州的先进做法和经验，找准军休服务管理工作的切入点，进一步加强军休机构软硬件建设，全面提升服务管理工作质量和水平，着力为军休干部提供更加高效、便捷、优质的服务。', '我市推荐庆阳香包绣制项目省级代表性传承人刘兰芳同志参评2020“中国非遗年度人物”推选宣传活动', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>284</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>庆阳市审计局赴陕西商洛市审计局考察学习审计业务工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_269392</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['庆阳市审计局赴陕西商洛市审计局考察学习审计业务工作_部门动态_政务_庆阳市人民政府', '近日，市委审计委员会办公室主任、市审计局党组书记、局长付玲珍带领局分管领导、办公室相关人员，赴陕西省商洛市审计局就党建与审计业务融合发展、审计文化建设、干部队伍建设、审计项目管理、质量控制、改革创新、研究型审计、大数据审计等方面工作进行专题考察学习。', '考察过程中，考察组一行与商洛市审计局领导、科室负责人、业务骨干进行了座谈交流，详细了解审计委员会设置运行、党建工作开展、审计文化建设、审计项目管理、质量管控、优秀审计项目培育、大数据审计、审计机关建设、审计干部队伍建设等情况，深入学习了商洛审计能查、能写、能说、能严“四能”审计干部队伍建设，以及“人人都是审计质量的把控员”的工作理念，研究推进新时代审计工作高质量发展举措，并就建立陕甘鄂豫四地审计机关区域联系合作机制形成共识，并提出了初步推动意见。', '庆阳市委编办举行学习贯彻习近平新时代中国特色社会主义思想主题教育第二期领导干部专题党课', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>284</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>合水考察学习取真经助推养殖产业高质量发展</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_253991</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为扎实推动合水县养殖产业提质增效和高质量发展，6月8日，合水县乡村振兴局组织相关单位负责人和养殖产业合作社负责人、养殖户赴平凉市泾川县考察学习养殖产业。', '考察组一行先后走进平凉红牛鼎康肉牛育肥场、东牛科技创新有限公司、高平镇牛家咀村养殖小区和飞云村千头肉牛养殖示范点等地，详细了解了泾川县肉牛养殖规模、育肥技术、经济效益、扶持政策、市场销售等方面的情况。', '考察组认为泾川县肉牛产业发展态势良好，肉牛养殖规模、标准化程度、产业发展优势明显，基本形成了全产业链融合发展的新格局。合水县将认真学习借鉴泾川县先进的养殖经验，进一步做大做强养殖产业，推动县域经济发展；同时希望两地能进一步加强交流合作，促进资源共享，实现优势互补，推动双方在多领域上共同发展。', '庆阳市人民医院在合水县开展“岐黄论道 陇原送医”大型巡诊暨对口帮扶第二季度义诊活动', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>284</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>贠建民率团赴天津市红桥区河东区开展东西部扶贫协作考察学习活动</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_2097</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['贠建民率团赴天津市红桥区河东区开展东西部扶贫协作考察学习活动_政务视频_庆阳动态_政务_庆阳市人民政府', '李鸿忠张国清阴和俊与甘肃省庆阳市代表团座谈 深化产业扶贫消费扶贫 助力贫困地区脱贫摘帽', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>284</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>庆阳市党政代表团赴平凉市考察学习两市签署战略合作协议</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-06-04</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_4722</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['庆阳市党政代表团赴平凉市考察学习 两市签署战略合作协议_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>284</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>贠建民卢小亨率团赴天津市滨海新区开展东西部扶贫协作考察学习活动</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2020-08-15</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_2105</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['贠建民 卢小亨率团赴天津市滨海新区开展东西部扶贫协作考察学习活动_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>284</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>卢小亨率团赴天津市静海区南开区开展东西部扶贫协作考察学习活动</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_2096</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['卢小亨率团赴天津市静海区南开区开展东西部扶贫协作考察学习活动_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>284</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>黄泽元带队赴陕西省榆林市考察学习煤化工产业和城市建设</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-08-09</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_4097</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['黄泽元带队赴陕西省榆林市考察学习煤化工产业和城市建设_政务视频_庆阳动态_政务_庆阳市人民政府', '周继军主持召开市政府党组（扩大）会议和常务会议 传达学习全省党政主要领导干部会议精神 研究安排经济高质量发展粮食安全等工作', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>284</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>庆阳市信访局组织干部赴江苏安徽考察学习信访事项复查复核工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2017-05-27</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_31815</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['庆阳市信访局组织干部赴江苏、安徽考察学习信访事项复查复核工作_部门动态_政务_庆阳市人民政府', '近日，庆阳市信访局抽调市、县（区）信访干部，赴信访工作先进地区江苏、安徽两省份，专题考察学习信访事项复查复核等工作。', '这次考察学习，主要是针对全市信访工作实际，学习借鉴外地第三方介入信访工作、信访事项复查复核、督查督办等方面的工作经验和有益做法，进一步规范全市第三方介入信访工作，健全信访事项复查复核体制机制，切实推动全市信访工作法治化建设进程。', '庆阳市公安局民警为庆阳职业技术学院和庆阳四中进行“抵制远离邪教、构建文明校园”暨校园安全专题报告会', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>284</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>庆城县农牧局组团赴广河县考察学习粮改饲工作</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2019-01-14</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_107861</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['为了提高玉米种植效益，解决庆城县畜牧养殖饲草不足的问题，探索走出一条“粮饲兼顾、草畜配套、以养带种、农牧互促”的循环农业发展和产业扶贫新路子，近日，庆城县农牧局组织人员赴广河县进行了考察学习。', '考察中，广河县政协主席、县农牧局局长及项目负责人分别介绍了广河县“粮改饲”实施情况并陪同参观了粮改饲实施带来的成果。广河县把“粮改饲”作为产业扶贫的重要举措，按照“政府推动、企业带动、农户联动、市场互动”的思路，大力推广订单种植和土地流转，以沿川的5个乡镇为重点，通过订单种植、企业流转，建立集中规划、大片作业的“粮改饲”示范区。', '在青贮饲草方式上，主要采取塑包青贮。塑包青贮不仅改变了传统的复杂工艺，还解决了青饲料使用过程中二次氧化、腐烂和营养成分流失等问题，提高了青饲料品质与利用率，使青饲料更加优质安全，使用方便，也便于贮藏和运输。', '在“粮改饲”方面，广河县通过以奖代补催生了恒达牧业、腾渊农牧等6家规模企业，群众以土地生产经营权入股龙头企业和合作社，不参与种植，每亩直接分红1200元，去年该县共流转土地0.98万亩，群众收益1100万元。而在基础母牛产业方面，针对条件有限、自己不能养殖的贫困户，采取养殖大户和合作社托管的方式，把贫困户购买的基础母牛托养给合作社，按合作社经营效益分红收益，最低享受10%的保底分红。全县发展大型龙头企业6个，农民专业合作社299个，全县51个贫困村农民专业合作社实现了全覆盖，参与合作社的贫困户达1608户。', '通过考察学习，大家对粮改饲种植玉米有了全新的认识，为全县草畜产业发展提供了更加宽广的路子。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>284</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>庆阳市农牧局赴固原市考察学习牛羊棚圈建设及产业发展模式</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2018-07-12</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_61129</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['庆阳市农牧局赴固原市考察学习牛羊棚圈建设及产业发展模式_部门动态_政务_庆阳市人民政府', '为了学习宁夏固原市在肉牛、肉羊棚圈建设及产业发展方面的经验，报经市政府同意。由市农牧局主要领导带队，组织市直农牧系统有关人员和五个县（环县、华池、庆城、镇原和宁县）的农牧（畜牧兽医）局长一行14人，于2018年7月5日-6日，对固原市牛羊棚圈建设及产业发展模式进行考察学习。 考察团先后到隆德县杨河牧业发展有限公司、正荣肉羊繁育有限公司，西吉县向峰家庭农场、四丰万亩绿源家庭农场和原州区金羚牲畜养殖农民专业合作社进行实地考察及座谈交流，学习了固原市肉牛、肉羊棚圈建设、牛羊品种、饲草料调制，母牛信息化管理和合作社带贫模式。 考察学习结束后，市农牧局向市政府提交了考察报告。考察组认为，通过对固原市肉牛、肉羊棚圈建设和产业发展模式的学习，今后在庆阳肉羊产业发展中应该借鉴固原市的一些先进的经验和做法，促进我市肉羊产业健康持续发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>284</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>庆阳市工商局组织人员赴正宁县考察学习养猪专业合作社建办经验</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2018-09-07</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_64769</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['庆阳市工商局组织人员赴正宁县考察学习养猪专业合作社建办经验_部门动态_政务_庆阳市人民政府', '按照市工商局党组安排，由局党组成员、副局长带队，于9月4日组织带领镇原县常山村和五里沟村干部群众一行12人，赴正宁县山河镇、宫河镇对土猪养殖专业合作社建办情况和带动贫困群众脱贫致富情况进行了考察学习。此次考察的4个专业合作社均为农户与正大公司合作建办的三元土猪养殖项目。经过走访考察、交流学习和座谈总结，考察团队一致认为正宁县土猪养殖专业合作社致富带富项目非常成功，具有可复制性和可推广性，值得学习和借鉴。', '在今后帮扶工作中，市工商局将借鉴正宁经验，积极汇报协调，争取政策上的大力扶持，以合理的带富机制，增强脱贫效果的可持续性。同时，动员有积极性的养殖户还需进一步转变思想观念，抓住机遇，放眼长远，科学规划养殖场选址和建设数量，争取生态效益和经济效益上的双赢。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>284</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>黄泽元带队赴宁夏中卫考察学习东数西算工程建设及数字经济发展工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_5447</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['黄泽元带队赴宁夏中卫考察学习“东数西算”工程建设及数字经济发展工作_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>284</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>庆阳市农业农村局赴山西怀仁等地考察学习肉羊产业发展情况</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_114922</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['庆阳市农业农村局赴山西怀仁等地考察学习肉羊产业发展情况_部门动态_政务_庆阳市人民政府', '为了学习借鉴外地肉羊产业发展经验，2019年5月14日至18日,市农业农村局组织市兽医局、市农科院、环县、华池县、庆城县、镇原县、合水县、宁县农业农村局及相关龙头企业（合作社）负责人一行21人，赴山西省怀仁市、内蒙古自治区鄂尔多斯市及宁夏回族自治区盐池县考察学习了三地肉羊产业发展。', '考察工作采取实地参观和现场交流等形式进行，先后观摩学习了山西怀仁市的肉羊育肥和屠宰精深加工，鄂尔多斯市的肉羊交易市场和品种繁育，宁夏盐池的滩羊选育和保种等情况，学习了三地肉羊产业扶持政策、肉羊繁育、屠宰加工、产品开发、市场销售及饲草加工一体化建设等发展经验。', '考察团白天参观学习，晚上组织集体讨论，大家一致认为，学习借鉴外地肉羊产业先进经验，对于进一步转变观念，完善思路，谋划我市肉羊产业发展具有重要的启迪作用。通过考察学习，既看到了我们的差距和不足，又看到了我们的资源优势和后发优势，进一步坚定了加快我市肉羊产业发展的决心和信心。市农业农村局局长贾志升总结概括了本次考察学习的主要收获、基本经验和需要大家思考的问题，并就学习借鉴外地先进经验、加快推进我市肉羊产业发展提出了具体要求：一要坚定肉羊产业发展的信心和决心，把肉羊产业作为我市脱贫攻坚的头号工程和首位产业，持续发力，坚定不移的抓实、抓好；二要坚持规模化养殖发展方向，在我市北部四县区重点发展肉羊产业专业乡镇、专业村，提高规模化养殖水平；三要建立健全良种肉羊繁育扩繁体系，扩大肉羊产业种群，力争到2021年全市肉羊饲养量达到1000万只；四要做好精深加工，通过生产生鲜、熟食、小食品、副产品，延伸产业链条，提高产品附加值；五要实施品牌化战略，坚持区域公用品牌、企业品牌、产品同步打造，创“庆羊”肉羊产业品牌，以品质开发市场，提高知名度、美誉度和市场竞争力；六要强化饲草保障，加强玉米秸秆利用，青、黄和干贮一起推广，提高秸秆饲料化利用率，并扩大紫花苜蓿种植，开展种植业结构调整，实施粮改饲项目推广，保证羊只饲草料供给。', '今后，在我市肉羊产业发展中，我们将充分学习借鉴外地先进的经验和做法，进一步完善工作思路，优化推动措施，促进我市肉羊健康持续发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>284</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>庆城县赴甘南藏族自治州考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2019-04-16</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_112693</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['庆城县赴甘南藏族自治州考察学习民族团结进步创建工作_县区动态_政务_庆阳市人民政府', '4月10日至4月12日，庆城县委常委、统战部长门杜娟，县政府副县长常文洲带领各乡镇、教育、公安、市场监管、工商联等相关部门负责人及部分工作人员一行34人赴甘南藏族自治州考察学习民族团结进步创建工作。', '考察团一行先后来到夏河县藏医医院、京东拉卜楞甘南馆，合作市第四小学、农业农村局、公安局、甘肃华羚干酪素有限公司等示范点对甘南州民族团结进步创建工作进行了深入了解。', '甘南州在创建全国民族团结进步示范州工作中认真贯彻中央关于“治国必治边、治边先稳藏”重要战略思想和“长期建藏、依法治藏、富民兴藏、凝聚人心、夯实基础”重大方略，紧紧围绕各民族“共同团结奋斗、共同繁荣发展”主题，以“中华民族一家亲，同心共筑中国梦”为目标，以促进各民族和睦相处、和衷共济、和谐发展为主线，把牢创建主题，创新平台载体，坚持民族团结进步创建与全州重点工作紧密结合，依托城乡环境综合整治、生态文明小康村建设，大力实施“九大工程”，深入推进民族团结进步示范创建“八进”活动，民族团结进步创建取得多方面的成效，释放了示范创建的显著综合效应，初步探索形成了一条具有时代特征、藏区特点、甘南特色的民族团结进步创建之路。', '庆城县考察团成员一致表示要认真学习借鉴甘南州在民族团结进步创建工作中的好经验好做法，立足本单位实际情况，创新工作思路，以便更好地运用到全县民族团结进步创建工作中。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>284</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>王胜副市长带队赴白银市考察学习乡村医疗机构一体化管理工作</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2019-07-25</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_119090</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['王胜副市长带队赴白银市考察学习乡村 医疗机构一体化管理工作_部门动态_政务_庆阳市人民政府', '7月22日，市政府副市长王胜带队赴白银市考察学习乡村医疗机构一体化管理工作。市卫健委主任邓莉娟、副主任李元庆，西峰区、环县政府分管领导、卫健局长，人民医院、部分卫生院主要负责同志参加考察学习。白银市政府副市长吴震、市卫健委主任冯双成等领导陪同考察。', '考察组深入平川区水泉镇中心卫生院、双岔村卫生室，靖远县东湾镇卫生院、砂梁村卫生室进行了详细的参观学习，听取了情况介绍，查看了工作资料，对乡村一体化管理、绩效考核、乡村队伍建设、公共卫生及健康扶贫网格化管理、中医馆、健康小屋及村卫生室建设情况进行了全面的学习考察，了解了白银市在推进乡村一体化、远程诊疗服务能力建设等方面的工作经验。', '考察组同时参观了白银市中心医院、白银市精神卫生中心、会宁县人民医院等单位，对胸痛中心、卒中中心、院士工作站、远程会诊中心、医学检验中心、影像中心、血透中心、儿童保健中心、介入医学中心、康复大厅、精神卫生健康管理等工作进行了参观学习，听取经验介绍，与医务人员详细交流，察看了相关业务资料，对医院基础设施建设、科室布局、就医环境、现代化医院管理、信息化平台建设等方面工作进行了全面的观摩学习。', '考察组一致认为，白银市乡村医疗机构一体化管理在推进体制改革、探索机制创新、立足惠民回归公益、增加基层人员工资待遇、推进绩效管理、网格化管理等方面探索出先进作法非常值得借鉴学习。王胜副市长要求考察组各单位要认真学习借鉴白银市一体化管理工作先进经验和做法，加快推进我市县乡村医疗机构一体化管理工作，全面提升基层医疗机构卫生健康服务能力。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>284</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>庆阳市科技局赴张掖武威和酒泉等地考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2019-06-25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_117161</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['为推进我市国家农业科技园区和高新技术产业开发区建设，2019年6月14日至18日，市科技局党组书记、局长张和先率队赴张掖、武威和酒泉市，考察学习兄弟市成功经验和做法。', '张局长一行先后深入张掖市国家农业科技园区、临泽县绿色食品加工创新创业孵化园、百惠沃田公司，武威市国家农业科技园区、武威保税物流中心、众兴菌业科技有限公司、普安制药有限公司、昊天农产品交易市场暨仓储物流中心、下双现代农业星创园、普康田园综合体，酒泉市国家农业科技园区、经济技术开发区、中国-以色列绿色生态产业园、东洞戈壁生态农业产业园、奥凯种子机械股份有限公司、大禹节水集团等园区和企业考察学习，并与各地科技局、园区管委会和龙头企业负责人就农业科技园区和高新技术开发区规划编制、管理模式、管委会组织架构、政策支撑、人才引进、项目实施、经费投入等方面内容进行了广泛、深入交流。', '本次考察学习让我们充分了解了兄弟市州在园区建设管理模式、产学研合作等方面取得的成功经验，为我们进一步推进“三建一创”工作，积极争创国家农业科技园区和高新技术产业开发区提供了很好的示范和借鉴作用。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>284</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>庆城县党政考察团赴合水宁县正宁和镇原考察学习产业发展和项目建设</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2019-08-19</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_120425</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['庆城县党政考察团赴合水、宁县、正宁和镇原考察学习产业发展和项目建设_县区动态_政务_庆阳市人民政府', '8月14日至15日，庆城县政协主席何骁玲，县委副书记姚振杰和县委常委、常务副县长秦亚军带领各乡镇、各相关部门负责人，来到合水、宁县、正宁和镇原四县考察学习产业发展和项目建设情况，县人大常委会副主任赵彦文、西川工业集中区管委会主任米鸿宁和驿马工业集中区管委会副主任李世宏等县级领导一同考察。', '14日上午，庆城县党政考察团一行先后来到合水县和宁县，对合水县全域无垃圾信息监管平台建设、何家畔镇改善人居环境示范线和宁县庆阳海越苹果分拣储藏项目、宁县太昌镇富邦“扶贫车间”、甘肃中聚中科产业园、宁县中村万亩矮化苹果基地进行了实地考察。', '”的模式，借助雪亮工程视频资源，建成了合水县全域无垃圾信息监管平台，平台由资料存储部分、可视化调度系统、保洁员和监管员手持终端、视频监控四部分组成，实现了全域无垃圾治理线上线下的“双线”管理。何家畔镇把美丽乡村示范线建设与全域无垃圾集中整治、改善城乡人居环境和脱贫攻坚相结合，重点围绕打造“特色产业观光线”，创新提出了改善农村人居环境“123456”（一拆二透三化四绿五建六创）的', '庆阳海越苹果分拣储藏项目占地102.6亩，总投资2.5亿元，该项目科技领先、链条完整、效益可观，每小时可完成20吨苹果的分拣和包装，可带动就业1000人以上，是该县9万亩“海升模式”苹果抵御市场风险的重要保障。', '宁县太昌镇富邦“扶贫车间”主要生产工作服、手套、安全鞋等12类20多种特种劳动防护穿戴用品，月均生产工作服3000套，安全鞋10000双，可带动该镇及周边群众就业134人。', '甘肃中聚科技产业园总投资1.5亿元，占地面积186亩，主要为长庆油田提供生产保证和技术服务。', '中村万亩矮化苹果基地计划总投资5亿元，将分两期建设苹果基地2万亩，年产100万株矮化自根砧苗木基地1000亩，以及2万吨气调库、年20万吨分拣线。', '14日下午，考察团一行来到正宁县，先后考察了融诚集团共享未来农场扶贫产业园建设项目、永正镇鑫乐农牧有限公司5000头肉牛养殖基地、年产50000吨苹果果糖厂建设项目、和琪昌建材加工有限公司6000万块环保空心砖建设项目。', '据介绍，融诚集团共享未来农场扶贫产业园建设项目是正宁县立足脱贫攻坚与乡村振兴有机衔接，招引的一个龙头企业。融诚集团在正宁实施跨省联县扶贫工程，促进一二三产业融合发展，着力打造未来农村和未来农业的新样板。', '年产50000吨苹果果糖厂建设项目计划投资6.2亿元，占地45.96亩，规划建设果品清洗及冷库分拣中心、果产品深加工车间、物流配送及销售商务中心、电子商务中心、运营管理中心及其他公共辅助设施。项目建成后，年加工鲜果35万吨，年产果汁3万吨、果糖5万吨、果干1万吨、果胶3万吨，年产值20亿元，可实现利润4.5亿元，可解决就业500多人，具有良好的经济效益和社会效益。', '和琪昌建材加工有限公司6000万块环保空心砖建设项目占地30亩，总投资2600万元，主要从事空心砖、多孔砖、空心砌块、免烧砖、建筑墙体用混凝土砌块等烧结制造和销售。该项目今年三月份开工建设，新建新型节能、脱硫环保型建筑砌砖旋转生产线一条，设计年生产能力6000万块，项目建成投产后，可解决当地劳动力就业岗位100多个。目前主体工程建设已基本完成，正在进行试生产。', '15日上午，在镇原县，考察团一行还先后观摩了庆阳鑫禾牧业种驴养殖场，太平镇彭阳村新中盛种鸡场、庆阳嘉仕乳业奶山羊产业化加工暨新厂区迁建项目、镇原县峁合村万寿菊种植基地和甘肃天欣堂医药有限公司加工厂。', '连日来，考察团一行一路走，一路听，一路看，一路问，一路讨论思考、详细了解了四县产业发展和项目建设方面的好经验、好做法。下一步，庆城县将结合本县发展实际，加强沟通交流，充分借鉴学习兄弟县的先进做法，促进提质增效，加速转型升级，推动全县经济社会持续健康发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>284</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>贠建民卢小亨率团赴天津市滨海新区开展东西部扶贫协作考察学习活动</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-08-15</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_142001</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['贠建民卢小亨率团赴天津市滨海新区 开展东西部扶贫协作考察学习活动_政务要闻_庆阳动态_政务_庆阳市人民政府', '8月14日，市委书记贠建民，市委副书记、市长卢小亨带领庆阳市党政代表团前往天津市部分高新技术企业和滨海新区，开展东西部扶贫协作考察学习活动。', '贠建民、卢小亨一行来到滨海新区，实地考察了滨海新区中关村科技园，参观了科研成果展，深入学习了滨海新区在支持科技创新工作方面的先进理念和先进做法。在盛实百草药业有限公司，贠建民、卢小亨一行详细了解了企业的发展现状、优势和生产加工工艺，考察学习了企业的管理运营模式。', '在云账户技术（天津）有限公司、天津讯飞信息科技有限公司和通用电气医疗系统（天津）有限公司，贠建民、卢小亨对共享经济综合服务、人工智能应用等内容进行了考察学习。', '天津市政府副秘书长张剑，天津市合作交流办副主任王东，天津市滨海新区领导夏青林、姜立超；庆阳市领导张懿笃、柴春、董涛，市委秘书长吕世福，市政府党组成员段登云参加考察。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>284</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>卢小亨率团赴天津市静海区南开区开展东西部扶贫协作考察学习活动</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_141895</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['卢小亨率团赴天津市静海区南开区开展东西部扶贫协作考察学习活动_政务要闻_庆阳动态_政务_庆阳市人民政府', '8月12日，市委副书记、市长卢小亨带领庆阳市党政代表团前往天津市静海区和南开区，开展东西部扶贫协作考察学习活动。静海区委书记蔺雪峰，南开区委书记杨兵，南开区委副书记、区长孙剑楠，天津市合作交流办二级巡视员张莉参加考察学习活动。', '在静海区，卢小亨一行先后前往康宁津园、海吉星物流园、金仓扶贫消费馆、爱玛科技股份有限公司和团泊新城健康产业园规划展馆、大邱庄小镇建设规划展厅，深入考察学习了静海区在发展医养结合、完善养老服务和物流建设、现代化城镇建设等方面的好经验、好做法，并看望了部分“点对点”务工人员。', '在南开区，卢小亨一行考察了天津食品集团商贸公司南开区扶贫馆、天津九安医疗公司、天津医酷科技公司和天津领碳科技公司，详细了解了南开区在大数据开发应用、智能化医疗设备研发等领域所具备的科技优势。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>284</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>贠建民率团赴天津市红桥区河东区开展东西部扶贫协作考察学习活动</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_141896</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['贠建民率团赴天津市红桥区河东区开展东西部扶贫协作考察学习活动_政务要闻_庆阳动态_政务_庆阳市人民政府', '8月12日，市委书记贠建民带领庆阳市党政代表团前往天津市红桥区、河东区，开展东西部扶贫协作考察学习活动。天津市合作交流办主任张庆恩，河东区委书记范少军，红桥区委副书记、区长何智能参加考察学习活动。', '在红桥区，贠建民一行先后实地考察了民族文化馆、智慧红桥数据中心社会治理指挥中心，深入学习了解了红桥区在棚户区改造、大数据收集应用和城市治理方面的先进经验。', '在河东区，贠建民一行考察了消费扶贫“庆阳馆”（宁县）、元明清天妃宫遗址博物馆、河东图书馆嘉华中心馆和华鼎科技有限公司，详细了解了河东区发展文化旅游产业的先进理念、成功经验和成熟做法。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>284</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>卢小亨带队赴山西考察学习煤层气勘查开采和利用工作</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2021-05-15</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_182820</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['卢小亨带队赴山西考察学习煤层气勘查开采和利用工作_政务要闻_庆阳动态_政务_庆阳市人民政府', '5月12日至13日，市委副书记、市长卢小亨带队，并邀请省自然资源专职副总督察赵玲房和厅矿业权管理处、矿产资源保护处主要负责同志及甘肃煤田地质局149队总工程师，赴山西省晋城市、太原市考察学习煤层气勘查、开采和利用工作。市政府副市长董涛和市自然资源局、市能源局主要负责同志参加考察。', '晋城市是山西煤层气的主产区，在煤层气勘查、开采和利用方面有着先进经验。卢小亨一行先后实地考察了晋城市煤与煤层气共采国家重点实验室、华新燃气集团蓝焰煤层气公司、中海油中联潘河采气厂、山西易高煤层气有限公司液化厂，详细了解煤与煤层气共采技术研发利用、煤层气增储上产及产业发展情况，并与晋城市政府召开座谈会，听取有关经验和做法介绍。卢小亨说，晋城市和庆阳市同属黄河流域，同是能源资源富集区。晋城在煤层气勘查、开采和利用方面起步早、发展快、效益好，取得的成就令人钦佩。这次晋城之行，学到了许多好经验、好做法，这对我们开采利用煤层气资源很有帮助。希望晋城市利用成熟的经验、政策、机制指导和帮助庆阳。董涛在会上介绍了庆阳市情和矿产资源情况。', '在晋城市考察结束后，卢小亨一行前往太原市，与山西省自然资源厅举行座谈，围绕煤层气矿权配置、产业发展、项目审批、支持政策、产值利税等问题进行深入交流。山西省自然资源厅厅长姚青林、副厅长武耀文对考察组一行表示热忱欢迎，并全面介绍全省煤层气勘查开采管理情况，油气处、矿保处、矿业权处负责同志就考察组提出的具体问题逐一解疑释惑。卢小亨对山西省自然资源厅的高度重视和大力支持表示感谢。他表示，山西是全国煤层气矿业权管理改革试点省，在资源勘查评价、矿业权配置管理、审批制度改革等方面有许多务实创新的做法，形成了“山西样板”。庆阳油煤气资源富集，这次当面请教和学习，深受启发、受益匪浅，为我们做好煤层气勘查开采管理工作提供了有益的借鉴和指导。我们将认真学习消化，将其转化为具体举措和路径，推动全市能源资源开发利用取得新的更大成效。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>284</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>金昌市政协考察组来庆阳市开展加快旅游产业发展考察学习</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2020-10-21</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_168582</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['金昌市政协考察组来庆阳市开展“加快旅游产业发展”考察学习_政务要闻_庆阳动态_政务_庆阳市人民政府', '10月19日，金昌市政协主席王富民、副主席沈丽萍等一行11人来庆阳就加快旅游产业发展工作进行考察学习。庆阳市政协主席李银、副主席张怀仁陪同考察。', '考察组一行先后前往华池县军民大生产基地、抗大七分校旧址、南梁革命纪念馆、镇原县聚德小镇美丽乡村生态农业园等处进行参观，详细了解庆阳市乡村旅游产业发展模式，并就庆阳乡村旅游景观建筑设计、项目规划、农业生态园打造等特色、优势、经验做法展开深入交流和探讨。', '经过全天考察，考察组一行对庆阳市近年来乡村旅游建设发展工作取得的成就充分赞赏，认为庆阳市乡村旅游亮点突出、措施得力、文化乡情浓郁，对当地群众增收带动明显，有效发挥了乡村旅游在实施乡村振兴战略中的重要作用。考察组成员认为，庆阳市乡村旅游发展极具学习和借鉴意义，此次考察为金昌市旅游产业发展提供了经验参考，将有效助力金昌市旅游产业建设。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>284</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>黄泽元带队赴陕西省榆林市考察学习煤化工产业和城市建设</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2022-08-10</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_224303</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['黄泽元带队赴陕西省榆林市考察学习煤化工产业和城市建设_政务要闻_庆阳动态_政务_庆阳市人民政府', '8月6日至8日，市委书记黄泽元带队赴陕西省榆林市考察学习煤化工产业和城市建设，学习先进经验，促进交流合作，进一步推动我市煤化工产业和城市建设加快发展。市领导董涛、张希岳、石福胜一同考察学习。', '榆林市委书记张晓光，榆林市委常委、市委统战部部长王华胜，榆林市人大常委会副主任米劲参加相关活动。', '黄泽元一行先后前往陕西精益化工有限公司、国能锦界能源有限公司、国能锦界煤矿、国能榆林化工有限公司、陕煤榆林化学有限公司、陕西未来能源化工有限公司、中煤陕西榆林能源化工有限公司、中石油兰州石化榆林化工有限公司、榆林科创新城管委会、榆阳区古城步行街和榆溪河生态长廊等处开展实地考察，详细了解榆林市煤油气资源综合深度转化、“由黑到白”煤炭深加工产业体系、生态环境综合治理和城市建设等工作。', '黄泽元说，九边重镇榆林是国家级能源化工基地，文化底蕴深厚、资源优势突出、产业基础扎实，煤化工产业发展迅猛，高质量发展势头良好，在高端能源化工、生态环境综合治理、城市建设等方面形成的许多经验和做法，对庆阳加快建设陇东综合能源化工基地和陕甘宁毗邻地区区域性中心城市具有重要借鉴意义。庆阳、榆林两市地缘相邻、山水相依，需要多沟通、多交流，希望双方在现有基础上创新合作机制、丰富合作内容、拓展合作领域，努力在更高层次上实现优势互补，共同推进两地经济社会高质量发展。', '张晓光对黄泽元一行表示欢迎。他说，榆林市将进一步加强与庆阳市的沟通对接，依托双方产业基础和资源优势，深化交流合作，发挥各自优势，增进产业融合互动，促进产业集群集聚，携手推进经济社会高质量发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>284</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市公安局交警支队赴兰州安康考察学习智慧交管建设先进经验</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-12-14</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jjfc/jjdt/jjdt1/content_201823</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['市公安局交警支队赴兰州、安康考察学习“智慧交管”建设先进经验_交警动态_交警动态_庆阳公安交警风采_专题_庆阳市人民政府', '为进一步解放思想、开阔视野，创新思路、提升能力，切实解决城市道路管理存在的短板不足，学习借鉴外地道路交通管理先进经验，在“智慧交管”建设中少走弯路，真正实现方便群众出行，保证道路安全畅通，服务区域中心城市建设，营造优质营商环境，12月7日起，市公安局交警支队“智慧交管”建设专题攻坚组先后赴“智慧交管”建设卓有成效的甘肃省兰州市、陕西省安康市开展深入考察学习。', '为进一步解放思想、开阔视野，创新思路、提升能力，切实解决城市道路管理存在的短板不足，学习借鉴外地道路交通管理先进经验，在', '专题攻坚组由市公安局党委委员、副局长、交警支队支队长张茂龙同志带队，交警支队副支队长王小鹏及“智慧交管”科技人员一行六人，在兰州交警支队、安康交警支队的热情介绍指导下，对“智慧交管”建设有了新认识、新想法，新思路。', '专题攻坚组由市公安局党委委员、副局长、交警支队支队长张茂龙同志带队，交警支队副支队长王小鹏及', '带着问题寻出路，借鉴经验谋全局。专题攻坚组将工作中存在的难点困点作为考察学习的突破口和切入点，按照市政府副市长、公安局党委书记、局长毛万东在12月4日“智慧交管”建设专题会议上的要求为工作方向，结合全市公安科技建设，探索适合庆阳交通发展实际，服务城市建设的庆阳“智慧交管”建设方案。', '带着问题寻出路，借鉴经验谋全局。专题攻坚组将工作中存在的难点困点作为考察学习的突破口和切入点，按照市政府副市长、公安局党委书记、局长毛万东在', '在兰州交警支队，专题组在支队指挥中心听取了兰州“智慧交管”建设情况，详细了解了兰州公安智慧警务云平台、交通信号灯控制系统、警察书屋、警卫线路设置等建设、运行情况。在兰州支队设施科研大队大队长李周智、东岗大队大队长董力陪同下实地查看拥堵路段治理、交通标志标线设置、中队建设情况，现场查看了中队营房、装备情况。随后与兰州交警支队支队长徐刚，副支队长王锡惠、张伟等支队领导进行了交流座谈。', '在陕西省安康交警支队，专题组在安康交警支队支队长王鹏、副政委廖坤茂陪同下，考察了汉滨分局交警大队，听取了汉滨分局交警大队大队长陈智勇详细介绍了汉滨“智慧交管”建设和“一盔一带”安全守护行动经验，查看了安康市城区各交通要道视频监控、详细询问了解了铁骑队装备配备、绿波带建设、交通信号控制系统、“两客一危”车辆管控平台等功能介绍。在支队指挥中心大厅，听取了科技部门整体工作介绍、观摩了基层交警执法站视频调度，详细听取了高速交警“三道防线”建设运用及发挥效能情况介绍。在支队会议室进行座谈，安康支队支队长王鹏向专题组介绍了安康自然条件、道路车辆以及驾驶人情况，近年来道路交通管理工作成效、亮点及下一步工作谋划。', '在陕西省安康交警支队，专题组在安康交警支队支队长王鹏、副政委廖坤茂陪同下，考察了汉滨分局交警大队，听取了汉滨分局交警大队大队长陈智勇详细介绍了汉滨', '通过听取经验介绍、实地查看、现场观摩，专题组真正看到了兰州、安康的“智慧交管”建设为城市的发展解决了通行难题，也对我市建设中存在的短板不足有了更加深刻的认识。专题组将此次学习考察情况形成专题报告，结合我市交通管理工作现状，及时修订“智慧交管”建设工作方案，探寻出适合庆阳道路交通管理实际并适度超前的“智慧交管”新蓝图。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>284</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>金昌市考察组来我市考察学习高铁站规划管理运营工作</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_243206</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['金昌市考察组来我市考察学习高铁站规划 管理 运营工作_部门动态_政务_庆阳市人民政府', '2023年3月12日，金昌市自然资源局副局长安文辉率金昌市发改委、金昌市地信院一行4人到我市考察学习庆阳高铁站规划、管理、运营工作。市自然资源局副局长陈芳玲、市发改委、市公交集团、庆阳高铁站相关工作人员陪同考察。', '考察组实地考察参观了庆阳高铁站房、站台、站前公交枢纽、地下停车场、出租车蓄车区、站前广场等，听取了关于庆阳高铁站规划建设、投融资情况、运营情况、交通疏解、综合管理等方面的介绍。双方还就自然资源保护与开发、国土空间规划、城市管理等方面进行了深入的交流与探讨。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>284</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>庆阳市林草局党组书记局长二级巡视员闫焕智带队赴北京市国家植物园考察学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_226522</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['庆阳市林草局党组书记、局长、二级巡视员闫焕智带队赴北京市国家植物园考察学习_部门动态_政务_庆阳市人民政府', '8月28日，庆阳市林草局党组书记、局长、二级巡视员闫焕智带队赴北京市国家植物园考察学习，北京植物园（北园）副园长李秀君、北京市园林绿化局生态修复处朱建刚陪同考察。', '在植物园导览图前，据李秀君介绍，北京市植物园是以迁地保育、科学研究、科学普及、园艺展示为主要功能，集游览休憩、植物种质资源保护和新优植物开发功能为一体的综合性植物园。始建于1956年，是我国北方唯一一家经国务院批准建立的国家级植物园。规划面积约400公顷，现实际管理面积195.9公顷，年游客量300余万人次，是首批国家重点公园、国家4A级旅游景区。目前，已建成植物专类园14个，全园共收集展示各类植物11000余种（含品种），包括国家保护和濒危植物595种，居全国领先地位；其中60%在温室收集，数量位居全国第一，是国内最重要的植物资源收集保护基地之一。', '随后，考察团参观了国家植物园科普馆、万生苑（温室）、水杉区、桃园区、紫薇园、梅园、珍稀濒危植物区、人文历史文化区并进行了座谈。', '在座谈时，闫焕智表示，位于甘肃省东部的庆阳市，处于中国版图几何中心，是典型的黄土高原沟壑区，塬面、沟壑、梁峁、河谷、平川、山峦、斜坡地形地貌兼有，生态条件在省内具有相对优势。近年来，庆阳市认真践行习近平生态文明思想，以“再造一个子午岭”工程全力助推国土绿化，其成效和社会影响力作为生态建设典型得到了《人民日报》《中国日报》的宣传，全市生态建设正在由粗放型向高质量发展方向转变。为了建设陕甘宁毗邻地区区域中心城市，增加城市品位和改善人居环境，庆阳市政府决定筹建“中国·庆阳黄土高原植物园”。在学习中，我们发现北京国家植物园充分利用山、水、林、人文、历史资源，通过近70年的建设，成为了北方唯一的国家植物园，对此，我们将认真学习国家植物园建设的经验、做法并结合庆阳实际，全面做好规划设计、定点定位、施工建设等各方面工作，努力将庆阳黄土高原植物园建成在黄土高原区域具有一定影响力的植物园。', '李秀君讲到，植物园建设要突出迁地保育、科学研究、科学普及、园艺展示主要功能，在规划编制过程中，可以统筹总规划和部门详细规划同步开展，节约建设时间。庆阳黄土高原植物园面积超过1万亩，要充分考虑游览休息、住宿、交通等关键环节。北京植物园将会对植物园管理、建设、运营经验等给予帮助，庆阳植物园在建设过程中出现的专业技术问题，北京植物园将尽力配合，十分期待庆阳黄土高原植物园建成运营。', '在京期间，考察团还同有关单位和企业就庆阳储备林建设、草原防火、森林固碳研究和林业碳汇开发利用、生态修复等项目进行了沟通对接。', '市人大常委会审议认为《2021年度市级预算执行及其他财政收支审计工作报告》 是高质量的审计报告', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>284</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>黄泽元带队赴宁夏中卫考察学习东数西算工程建设及数字经济发展工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_295810</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['黄泽元带队赴宁夏中卫考察学习“东数西算”工程建设及数字经济发展工作_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '5月23日至24日，市委书记黄泽元带队前往宁夏回族自治区中卫市考察学习“东数西算”工程建设及数字经济发展工作。23日下午，召开考察座谈会，中卫市委副书记、市长马洪海出席并讲话。', '黄泽元对中卫市委、市政府给予庆阳发展的关心支持表示感谢。他说，全国一体化算力网络国家枢纽节点暨“东数西算”工程启动以来，庆阳把发展数字经济作为千载难逢的机遇和换道超车的机会，认真落实习近平总书记关于数字经济发展的重要指示和论述精神，立足国家所需、庆阳所能、未来所向，围绕以“算”夯基、以“网”聚能、以“数”赋智，奋力开启数字经济的变革实践，全面赋能高质量发展。中卫数字产业起步早、规模大、优势多、应用广，先后获批国家（中卫）新型互联网交换中心和全国一体化算力网络国家枢纽节点，成为全国首个“双中心”城市，为庆阳创造了借鉴的经验和学习的样板。希望两地进一步加强合作，共同争取国家政策支持、吸引东部资源、推进区域发展，不断做大做强数字经济。我们将持续学习中卫创新的思路、优越的环境、优惠的政策，推动工作取得更大成效。诚挚邀请中卫市组团到庆阳点对点考察调研、面对面传经送宝，共同在服务国家战略中实现更大发展。', '马洪海对黄泽元一行表示欢迎，对庆阳给予中卫发展的关心支持表示感谢。他说，中卫与庆阳山水相连、人缘相亲、文化相通，既是新时代西部大开发、黄河流域生态保护和高质量发展两大区域战略“双覆盖”的地区，又是全国一体化算力网络国家枢纽重要节点城市。中卫将与庆阳一道认真贯彻落实习近平总书记在新时代推动西部大开发座谈会上的重要讲话精神，聚焦大保护、大开放、高质量发展，在推动高质量发展、培育高能级产业、打造高颜值生态、构建高水平开放、创造高品质生活上协同发力，共同书写新时代黄河“几字弯”经济圈合作新典范、新标杆。', '考察期间，黄泽元一行先后前往中卫市科技馆（云展馆）、中国联通中卫云数据中心、国家（中卫）新型互联网交换中心、美利云中卫数据中心、中国移动中卫数据中心，考察学习中卫市云计算和大数据产业发展情况、重点项目规划建设及前沿技术研发应用等情况。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>284</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>庆阳市党政代表团赴平凉市考察学习两市签署战略合作协议</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_253170</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['庆阳市党政代表团赴平凉市考察学习 两市签署战略合作协议_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '6月2日至3日，庆阳市党政代表团赴平凉市考察学习项目建设、农业产业化、文化旅游等工作，共叙深厚友谊，共谋交流合作，共话发展蓝图。3日下午，举行了考察座谈会，签署《庆阳市人民政府与平凉市人民政府战略合作协议》，共商两市深化合作事宜，携手推进高质量发展。', '平凉市委书记王旭、庆阳市委书记黄泽元讲话。平凉市委副书记、市长白振海，庆阳市委副书记、市长周继军分别介绍两市市情和经济社会发展情况，并代表双方签约。', '王旭代表平凉市委、市人大常委会、市政府、市政协向代表团一行到平考察表示欢迎，对庆阳市长期以来给予平凉的关心支持表示感谢。她说，在我们深入学习贯彻党的二十大精神，奋力推进高质量发展之际，庆阳市党政代表团来平考察指导、传经送宝，必将有力开创两市合作发展新局面。近年来，庆阳市委、市政府深入贯彻落实习近平总书记对甘肃重要讲话和指示精神，团结带领庆阳人民赓续红色基因、传承南梁精神，勇毅前行，创新实干，经济社会发展取得了令人瞩目的成就，值得我们学习借鉴。平凉和庆阳地缘相接、人文相亲、习俗相似，交流交往广泛、互动合作良好，联动性、互补性、协同性很强。站在新的起点上，平庆两市共同肩负着省委赋予的“平庆率先发展”“打造陇东南经济带”的时代使命，共同承担着筑牢陇东黄土高原地区生态安全屏障和建设陇东综合能源基地的政治责任。希望以此次考察为契机，在陇东综合能源基地建设、培育壮大特色优势产业、重大基础设施建设等方面加强协作交流，进一步扩大友好往来，促进互利共赢，共同打造陇东新的增长极。', '黄泽元代表市委、市人大常委会、市政府、市政协对平凉市长期以来给予庆阳工作的大力支持表示感谢。他说，平凉与庆阳同属陇东，地相连、山相近、水相通，在长期的发展中，两地相互支持、相互帮扶，结下了深厚友谊。这次考察学习是一次“走近亲、学真经、强合作”之行，我们深切感受到平凉农业产业化水平高、文旅全域成效实、招商引资规模大、干部群众劲头足，我们看到了一个自然生态欣欣向荣、经济发展生机勃勃、各项事业蒸蒸日上的平凉。平凉经济社会发展取得的成就，创造了许多先进典型，为庆阳提供了可复制的成功经验。希望两地把合作事项落到实处，以更高交通设施的通达性和便捷性、区域市场的开放性和包容度、党政沟通的常态化和务实性，让两地互通水平更高；共同打造陇东文化品牌，共同建设陇东经济板块，共同提升陇东比较优势，让两地互联范围更广；组建工作专班，以“大格局、小切口”共谋项目、互参节会、共享要素，以“大范围、多层次”促进市级党政、县（区）、部门、行业、企业、社会组织之间形成紧密互动和联系，让两地互促成效更实。我们诚邀平凉市党政代表团来庆考察交流，扩大合作领域，强化合作举措，深化合作机制，在新征程上实现庆平两地携手共进、共同发展。', '座谈会上，庆阳市农业农村局、交通运输局、文体广电和旅游局分别与平凉市相关部门签署合作协议。', '在平期间，代表团一行前往泾川县、崆峒区、静宁县，考察了平凉红牛鼎康肉牛育肥厂、泾河川万亩现代农业产业园、平凉国维年加工150万吨玉米生产淀粉项目、海创能源科技公司生活垃圾焚烧发电和餐厨垃圾处理项目、平凉市体育运动公园项目、平凉博物馆、葫芦河流域现代苹果产业示范带、德美地缘冷链物流产业园暨静宁苹果期货交割库、甘沟镇产业融合经济示范园暨昊康牧业肉牛养殖基地。', '平凉市领导宋全科、王琳玺、胡雄韬、王锦、王晓军、丁富强、杨恭及李强、汝登国，庆阳市领导董涛、霍子俊、宋树红、张希岳、石福胜、杨廷祯、吴宝定及刘选明参加。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>284</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市水务局副局长杨灏带队赴宁夏水联网公司数字治水产业园考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_269328</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['市水务局副局长杨灏带队赴宁夏水联网公司数字治水产业园考察学习_部门动态_政务_庆阳市人民政府', '按照市水务局主要领导安排，副局长杨灏同志带队于10月22日赴宁夏水联网公司数字治水产业园进行考察学习，进一步推进庆阳市智慧水利项目规划。局机关相关科室及水政监察支队负责同志参加学习。', '考察团通过听取宁夏水联网公司介绍、观看专题片、专业人员讲解和座谈讨论等方式，详细了解了宁夏固原市彭阳县互联网+城乡供水、青铜峡数字灌区、南汇排水厂站网一体化运营管理系统等数字治水产业成果，并就我市智慧水利实现路径、发展方向及建设成本进行了座谈讨论。', '杨灏同志强调，我市水利信息化基础设施建设滞后，智慧水利项目前景广阔、大有可为，但任务较重、投资巨大，要坚持一次规划，分步骤、分区块、分县区安排实施，目前智慧河湖管理项目已经启动，下一步要以城乡生活和水资源管理为重点，先行先试，开展智慧水利项目建设。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>284</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>庆阳市水务发展有限公司到云南省元谋县现代化灌区考察学习</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_278039</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['庆阳市水务发展有限公司到云南省元谋县现代化灌区考察学习_部门动态_政务_庆阳市人民政府', '12月15日庆阳市水务发展有限公司董事长贾工作一行到云南省元谋县考察学习现代化灌区建设运营管理先进经验。', '考察组先后参观了麻柳、丙间水库水源工程，元谋县大型灌区丙间片 11.4万亩高效节水BOT项目，元谋大禹清和运营服务中心和元谋大禹项目实施公司，详细了解灌区项目谋划、建设与社会资本合作、运营管理模式和经验。', '元谋大禹公司向考察组详细介绍了项目公司运营管理模式、项目收益、运营机制和项目实施情况。贾工作对大禹节水集团围绕“三农三水三张网”（农业节水、农民饮水、农村污水三水共治，水网、信息网、服务网三网融合）的产业定位和项目建设运营模式给予充分肯定。庆阳市水务有限公司将认真学习借鉴元谋灌区建设运营模式，结合实际情况，因地制宜推进全市300万亩高标准农田节水灌溉项目。同时加强与大禹节水集团合作，创新工程设计、投资融资模式、运维管理及智慧化服务，共同推进项目实施。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>284</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>市水务局赴江苏福建开展智慧水务考察学习和招商引资推介</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2024-05-23</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_295697</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['市水务局赴江苏福建开展智慧水务考察学习和招商引资推介_部门动态_政务_庆阳市人民政府', '5月19日-21日，市水务局党组书记、局长王金龙带领市水务局、宁县水务局相关同志赴江苏昆山、上海嘉定、福建泉州就智慧水务建设、水务企业发展进行考察学习。市水务发展公司董事长贾工作、甘肃瑞庆新能源集团有限公司总经理赵法宏参加考察活动。江苏比高投资集团有限公司总裁黄亚福、上海威派格智慧水务股份有限公司副总经理吴浴阳、泉州水务集团党委书记、董事长黄建洪陪同考察。', '考察组先后参观了江苏比高投资集团有限公司、上海威派格智慧水务股份有限公司、福建泉州水务集团公司，与三家公司的高层管理、技术研发和工程管理人员进行了座谈交流。三家企业全面详细介绍了水务高新技术研发、产品开发、设施设备生产、企业管理运行、水务改革路径方法、水利产业发展、试点项目建设和投资兴业意向。双方就智慧水利建设、水务事业发展中的疑难问题、水务合作重点和投资意向进行了深入交流探讨。王金龙对庆阳市情水情、水利发展规划、重点项目谋划，特别是庆阳面临的优势机遇、良好的招商引资环境做了详细推介。热情邀请各企业能够与庆阳达成合作意向，尽快进入实质性实施阶段，切实实现互利共赢、共同进步。同时，希望考察组成员充分认识差距、抢抓机遇，全力做好企业落地庆阳的各项服务保障，切实为企业在庆阳发展创造便利条件。要认真学习借鉴先进地区经验做法，不断加快我市智慧水利建设和水务公司发展步伐，有力有效推进庆阳水务事业快速健康高质量发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>284</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>黄泽元带队赴宁夏中卫考察学习东数西算工程建设及数字经济发展工作</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_295815</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['黄泽元带队赴宁夏中卫考察学习“东数西算”工程建设及数字经济发展工作_政务要闻_庆阳动态_政务_庆阳市人民政府', '5月23日至24日，市委书记黄泽元带队前往宁夏回族自治区中卫市考察学习“东数西算”工程建设及数字经济发展工作。23日下午，召开考察座谈会，中卫市委副书记、市长马洪海出席并讲话。', '黄泽元对中卫市委、市政府给予庆阳发展的关心支持表示感谢。他说，全国一体化算力网络国家枢纽节点暨“东数西算”工程启动以来，庆阳把发展数字经济作为千载难逢的机遇和换道超车的机会，认真落实习近平总书记关于数字经济发展的重要指示和论述精神，立足国家所需、庆阳所能、未来所向，围绕以“算”夯基、以“网”聚能、以“数”赋智，奋力开启数字经济的变革实践，全面赋能高质量发展。中卫数字产业起步早、规模大、优势多、应用广，先后获批国家（中卫）新型互联网交换中心和全国一体化算力网络国家枢纽节点，成为全国首个“双中心”城市，为庆阳创造了借鉴的经验和学习的样板。希望两地进一步加强合作，共同争取国家政策支持、吸引东部资源、推进区域发展，不断做大做强数字经济。我们将持续学习中卫创新的思路、优越的环境、优惠的政策，推动工作取得更大成效。诚挚邀请中卫市组团到庆阳点对点考察调研、面对面传经送宝，共同在服务国家战略中实现更大发展。', '马洪海对黄泽元一行表示欢迎，对庆阳给予中卫发展的关心支持表示感谢。他说，中卫与庆阳山水相连、人缘相亲、文化相通，既是新时代西部大开发、黄河流域生态保护和高质量发展两大区域战略“双覆盖”的地区，又是全国一体化算力网络国家枢纽重要节点城市。中卫将与庆阳一道认真贯彻落实习近平总书记在新时代推动西部大开发座谈会上的重要讲话精神，聚焦大保护、大开放、高质量发展，在推动高质量发展、培育高能级产业、打造高颜值生态、构建高水平开放、创造高品质生活上协同发力，共同书写新时代黄河“几字弯”经济圈合作新典范、新标杆。', '考察期间，黄泽元一行先后前往中卫市科技馆（云展馆）、中国联通中卫云数据中心、国家（中卫）新型互联网交换中心、美利云中卫数据中心、中国移动中卫数据中心，考察学习中卫市云计算和大数据产业发展情况、重点项目规划建设及前沿技术研发应用等情况。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>284</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>庆阳市人社局赴外市考察学习国家公共就业服务能力提升示范项目实施情况</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2024-05-31</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_296508</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['庆阳市人社局赴外市考察学习国家公共就业服务能力提升示范项目实施情况_部门动态_政务_庆阳市人民政府', '5月24日至30日，由庆阳市人社局主要领导、分管领导及相关科室（单位）组成考察组，赴省内兰州、张掖及山东威海、江西赣州考察学习国家公共就业服务能力提升示范项目实施情况。', '考察组一行先后到兰州市城关区靖远路街道九州创城社区、草场街街道零工驿站、丝路启迪智慧信息技术服务有限公司、城关区云零工市场、兰州人力资源产业园，张掖市甘州区市级高技能人才培训基础（张掖市职教中心）、西北片区“零工市场”、民信职业培训学校、南街街道泰安社区、张掖人力资源市场，威海市环翠区零工市场、北门外社区零工驿站及“社区微业”、威海创业大学、韩乐坊社区“家门口”就业，赣州市经开区人力资源产业园、蓉江新区大学生（青年）创业园、于都县省纺织服装产业职业技能公共实训基地考察学习。', '考察组一行分别与兰州、张掖、威海、赣州市人社局负责人及相关科室（单位）负责人就人才培训基地运行、零工市场建设、充分就业社区创建、信息化建设运用、公共就业服务能力提升项目实施等方面工作进行深入座谈交流。', '座谈会上，兰州、张掖、威海、赣州市人社局详细介绍了公共就业服务工作开展，公共就业服务能力提升示范项目申报、实施相关情况。考察组观看了公共就业服务能力提升示范项目专题片，介绍了庆阳基本情况和前期所做的主要工作，并就公共就业服务能力提升示范项目实施过程中可能遇到的一些具体问题对口进行了详细咨询。', '考察组一行表示，兰州、张掖、威海、赣州市在人才培训基地运行、零工市场建设、充分就业社区创建、公共就业信息化建设等方面取得了很好成效，十分值得庆阳学习借鉴。特别是在公共就业服务能力提升示范项目实施中积累了很多有益经验，为庆阳市进一步细化、实化该项目方案，成立领导机构，出台有关措施办法，顺利启动并实施好该项目，全面提升全市公共就业服务能力和水平提供了宝贵经验和有益借鉴。兰州、张掖、威海、赣州市人社部门负责人表示，将加强与庆阳人力资源合作交流，全力构建公共就业服务常态化联络、市场化人力资源公司交流、公共就业服务能力提升示范项目协作等工作机制，实现资源共享、优势互补、相互促进、共同提高，携手推动就业创业工作高质量发展。', '就业是经济发展的“晴雨表”，也是社会稳定的“压舱石”。兰州、张掖、威海、赣州市的公共就业服务工作带给我们三点启示：一是围绕产业抓就业。四个城市都立足产业发展实际开展工作，不论是职业技能培训，还是劳务品牌培育，都有产业作为支撑，如张掖的全国玉米育种、赣州于都的服装加工等产业，形成了产业发展与群众就业良性互动。二是市场运作抓就业。立足政府主导、企业主体，用市场无形的手助推就业，如张掖、兰州、威海都通过政府购买服务，进行市场化运作，成效明显。三是培育品牌抓就业。抓创业就业工作，示范引领、典型引路是基本方法，如兰州“金城就业360”、威海“精致就业360服务”、赣州“就在赣州 虔城似锦”等服务品牌，都起到了很好的带动作用。在下一步工作中，我们将尽快完善组织机构、细化实施方案、制定工作制度，将考察学习成果转化为项目实施的动力，高标准抓好各项工作任务落实。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>284</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>考察学习促提升深化交流谋合作庆阳市农机化服务中心赴多地开展考察学习和数字经济招商</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_246255</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['考察学习促提升 深化交流谋合作——庆阳市农机化服务中心赴多地开展考察学习和数字经济招商_部门动态_政务_庆阳市人民政府', '考察学习促提升 深化交流谋合作 庆阳市农机化服务中心赴多地开展考察学习和数字经济招商', '为深入贯彻党的二十大精神，扎实开展“三抓三促”行动，提升农机干部队伍能力素质，推动数字经济企业签约落地，助推我市“智慧农业”产业链集群发展，3月27日—4月4日，市农机化服务中心主要负责人带队赴河南、河北、山东、江苏农机制造企业进行实地调研和考察学习，开展农机产业链数字经济招商。', '在河南期间，考察组先后参观了中国一拖集团、焦作泰利机械制造股份有限公司、亚澳南阳农机有限责任公司，观摩了拖拉机、小麦收获机、玉米收获机、旋耕机、精量播种机等产品生产车间、中国一拖集团新型轮拖智能化工厂。考察组通过实地查看、听取介绍和交流探讨等方式，全面了解企业数字控制、智能装配及生产经营管理情况，详细掌握各类农机产品的性能和特点，深度讨论了大豆玉米带状复合种植农艺模式和收获机械短缺等难点热点问题。', '在河北期间，考察了河北英虎农业机械股份有限公司，实地观摩了自走式玉米收获机、自走式玉米茎穗兼收收获机等产品生产车间、电泳涂装车间，大家一路走、一路看、一路听、一路议、一路学，详细了解自动化制造、流水线配装、智能农机研发、车联网服务管理等方面情况，进一步打开了眼界、开拓了思路。', '在山东期间，先后考察了山东巨明机械有限公司、潍柴雷沃重工股份有限公司、九方泰禾国际重工（青岛）股份有限公司、山东五征集团有限公司，实地观摩了小麦收获机、玉米收获机、谷物联合收割机、拖拉机、青饲料打捆机、打捆包膜一体机、青贮设备等产品生产车间。考察组深入考察学习巨明集团数字化智慧平台、潍柴雷沃客服服务中心和五征集团车联网平台建设运营情况，详细介绍了庆阳市“东数西算”产业园区建设进展情况。', '在江苏期间，先后考察了江苏悦达智能农业装备有限公司、（必圣士）常州农业机械制造有限公司、常州东风农机集团有限公司，实地观摩了拖拉机、割草机、草坪机械、果园机械等产品生产车间，详细了解了悦达智能农装和东风农机集团智能农机制造、数字农业、物联网技术方面建设情况，加强全方位、多角度、深层次的学习交流合作。', '考察学习期间，考察组多次与企业就农机产品研发、技术创新、丘陵山区机械化问题、大豆玉米带状复合种植等方面进行了深入座谈交流，并介绍了庆阳市区位优势、投资环境、“东数西算”庆阳枢纽节点、数字经济招商引资优惠政策，诚挚邀请广大企业家到我市考察投资，共赢发展，共享数字经济产业成果。所访企业均对庆阳市数字经济产业表示兴趣浓厚，在“智慧农业”产业链发展上有广阔合作空间，将尽快回访实地考察。本次招商引资活动中，市农机化服务中心与焦作泰利、河北英虎、山东巨明、九方泰禾、常州东风农机制造有限公司达成了初步合作意向，签署了意向协议。', '通过考察学习，进一步解放了思想，开阔了眼界，丰富了知识，增强了信心，为我市农机化高质量发展提供了宝贵的经验和技术方案，为推动数字经济企业实质性落地夯实了基础。下一步，我们将加快引进先进适用的农业机械，持续加强与意向企业联系沟通，积极推动企业来庆实地考察，全力做好服务保障工作，力争正式签约落地，为我市数字经济建设和农业现代化贡献农机力量。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>284</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>黄泽元率团赴南开大学考察学习对接陇东学院与南开大学建立合作有关事宜</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwsp/content_3165</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['黄泽元率团赴南开大学考察学习 对接陇东学院与南开大学建立合作有关事宜_政务视频_庆阳动态_政务_庆阳市人民政府', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>284</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>市文明办组织工作人员赴成都市遂宁市考察学习创建全国文明城市网上材料申报工作</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2018-10-30</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zt/jwmsxfgcwmcs/wmcscjzhd1/content_104023</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['市文明办组织工作人员赴成都市、遂宁市考察学习创建全国文明城市网上材料申报工作_文明城市创建在行动_讲文明、树新风、共创文明城市_专题_庆阳市人民政府', '为学习借鉴外地创建全国文明城市网上材料申报经验做法，确保创建文明城市年度测评取得良好成绩。10月21日至25日，市文明办副主任李小虎带领市创建办、市文明办5名业务人员赴成都市、遂宁市考察学习创建全国文明城市网上材料申报等工作。', '两个城市分别介绍了创建全国文明城市工作主要做法和先进经验，重点围绕创建文明城市网上材料申报工作理念、审核流程、上传方法等与考察组进行了深入交流，并就网上材料申报格式要求等具体业务进行了现场指导。', '考察组认为，成都市、遂宁市创建全国文明城市网上材料申报工作经验先进、成效明显，值得学习和借鉴。市创建办、市文明办将指导西峰区和市直各部门对标测评体系，积极借鉴两个城市的经验做法，认真做好2018年创建全国文明城市年度测评网上材料申报工作，全力解决网上材料申报中存在的问题，确保中央文明办网上材料审核环节不出问题。（庆阳市文明办）', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>284</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>庆阳市审计局赴张掖市酒泉市审计局考察学习审计项目质量和投资项目审计工作</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-10-26</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_197347</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['庆阳市审计局赴张掖市、酒泉市审计局考察学习审计项目质量和投资项目审计工作_部门动态_政务_庆阳市人民政府', '近日，为认真学习张掖、酒泉两地审计质量建设和投资项目审计工作的先进经验和做法，庆阳市审计局派出考察学习组赴张掖、酒泉市审计局进行了实地考察学习。', '考察学习中，张掖、酒泉市审计局详细介绍了审计质量管理方面的经验和做法以及政府投资审计管理体制的建立、转型方向以及创新改革等方面内容，并就工程价款结算审计、项目竣工决算审计以及对社会中介机构的管理等情况开展深入学习和交流。', '通过学习，进一步开阔了视野，增长了知识，明确了今后工作重点、思路和方法，为推动全市审计质量提升和投资项目审计工作深入开展奠定了基础。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>284</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>庆城县党政考察团赴平凉市天水市部分县区考察学习脱贫攻坚扶贫车间暨合作社建设先进经验</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019-01-04</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_106879</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['庆城县党政考察团赴平凉市、天水市部分县区考察学习脱贫攻坚、“扶贫车间”暨合作社建设先进经验_县区动态_政务_庆阳市人民政府', '庆城县党政考察团赴平凉市、天水市部分县区考察学习脱贫攻坚、“扶贫车间”暨合作社建设先进经验', '为深入贯彻省、市关于脱贫攻坚暨“扶贫车间”创建工作推进会议精神，进一步学习借鉴先进市县经验做法，按照县委、县政府统一安排部署，12月25日至28日，县委副书记王刚，县委常委、常务副县长姚振杰带领部分乡镇和县农牧、人社、果业、扶贫、就业、经管等单位相关负责人组成党政考察团，赴平凉和天水部分县区进行考察学习。', '12月25日，考察团一行来到素有“瓜果之乡”之美称的平凉市庄浪县，先后深入水洛吊沟肉牛养殖场、陇源薯业公司及庄浪县农发公司对国有扶贫公司运作模式及农村“三变”改革工作进行了考察学习。', '12月26日—27日上午，考察团一行来到有“武术之乡”之美誉的天水市甘谷县，先后深入磐安镇易地扶贫搬迁点及配套扶贫车间、腾达职业技术培训学校、六峰镇易地扶贫搬迁点及配套扶贫车间、新兴镇蔡家寺村扶贫车间、雅路人麻编鞋业有限公司等地，通过实地察看、听取汇报、询问交流等方式，详细考察了解了甘谷县扶贫车间及产业发展情况。', '12月28日，考察团一行来到国家级风景名胜区麦积山景区的所在地—天水市麦积区，先后来到新民苹果种植专业合作社、麦积区南山脱贫奔小康15万亩苹果产业园和天水花牛苹果（集团）有限责任公司等地，详细考察了麦积区的苹果产业发展情况和新民苹果种植合作社在运营、管理等方面好的经验和做法。', '庄浪县国有农发公司科学规划、精准施策，依托县域资源，搭建融资平台，采取“党组织+国有公司+龙头企业+专合组织+致富能人+贫困群众+金融保险”的运作模式，服务全县脱贫攻坚，对贫困户实行劳务用工、产品收购、技术培训“三个优先”和供农资、供良种、供技术、包销售的“三供一销”服务，充分发挥了龙头企业在脱贫攻坚工作中的带动作用；甘谷县针对部分群众既无致富技能、又无法外出务工这一突出问题，在大力发展支柱产业的同时，充分挖掘劳动人口和特色产业资源，按照“政府主导、企业带动、农户参与”的思路，引导劳动密集型企业将生产车间和培训课堂延伸到贫困村，在资金投入、配套设施、企业管理、订单保障等方面全力支持，积极打造“厂房式、居家式、跟进式、安置式”等多种形式的扶贫车间，让贫困群众就地就近就业、稳定增收脱贫，走出了一条群众增收、产业发展、企业壮大、多方共赢的脱贫新路子；麦积区新民苹果种植专业合作社按照“分户作务、统一管理、统一品牌、统一包装、统一销售”的原则进行标准化苹果生产，使土地由原来的撂荒地变为了社员的“绿色银行”，成为农户发家致富的重要依托，真正实现了兴果富农的目标。', '庄浪县、甘谷县、麦积区三地在富民产业培育、农村“三变”改革、“扶贫车间”创建及合作社建办方面的做法给考察团成员留下了深刻的影响，对庆城县脱贫攻坚工作有极大的借鉴意义。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>284</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>开展结对共建助力乡村脱贫市政府外事办组织帮扶村党员赴南梁考察学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019-11-06</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_124780</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['开展结对共建 助力乡村脱贫——市政府外事办组织帮扶村党员赴南梁考察学习_部门动态_政务_庆阳市人民政府', '11月1日,市政府外事办结合“不忘初心、牢记使命”主题教育,组织脱贫攻坚帮扶村——镇原县太平镇彭阳村的乡镇包村干部、村“两委”班子成员、种养大户党员代表赴南梁考察脱贫产业发展,共同开展革命传统教育。', '在实地观摩种植大棚、扶贫车间后,南梁银旺中药材农民专业合作社的负责人介绍,他们在2018年集中连片种植金丝皇菊、金丝香菊43棚,带动全镇85户贫困群众种植金丝菊107棚。采收后,经过烘干、包装,每朵市场价格可以达到3到5元,每棚的保守纯收入在5万元左右。当地群众还可以通过流转土地或者提供采收等劳务获取收入,每年也能达到一两万元。大家对这种“大棚自主经营+保护价回收+定向务工+产品自营+种苗销售”的“多靶点”增收模式产生了浓厚兴趣,纷纷表示,金丝菊产业的种植投入不大,技术要求简单,创收能力强,很适合村组和群众发展集体经济或“五小产业”,是带动贫困群众稳定脱贫致富的好门路。这次考察学习,为彭阳村乃至太平镇的脱贫产业发展提供了可参考、可复制的路子。', '市政府外事办还组织帮扶村党员与机关党员一同参观了南梁革命纪念馆,在革命烈士纪念碑前重温了入党誓词,在陕甘边区苏维埃政府旧址听取了刘志丹、谢子长、习仲勋等老一辈无产阶级革命家的红色故事分享,共同开展了红色教育和革命传统教育,进一步了解了我们的革命历史,深化了对“南梁精神”的理解,明晰了我们党的初心和使命,达到了“党员受教育、支部共提升”的目的,为扎实搞好“不忘初心、牢记使命”主题教育夯实了思想基础。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>284</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>着眼宜居宜游重塑文化之乡镇原县党政考察团赴周边县区考察学习之四</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020-08-17</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_142076</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['着眼宜居宜游 重塑文化之乡 ——镇原县党政考察团赴周边县区考察学习之四_县区动态_政务_庆阳市人民政府', '实施乡村振兴，既要有新气象新作为，又要有新风貌新生活。乡村发展关乎广大农民的切身福祉、农村社会的文明和谐。8月8号至9号，县委书记毛鸿博带领全县党政考察团一行来到了泾川县和合水县，考察学习美丽乡村建设、城乡环境整治、县城建设和乡村人居环境。', '泾川县泾明乡白家村是2017年的省列“千村美丽”示范村，近年来，白家村把美丽乡村建设与乡村旅游开发同步推进，基础设施配套和人居环境改善同步实施，形成了以“探秘远古文化、回归山水田园体验民俗风情、记住浓浓乡愁”为一体的乡村旅游品牌，今年累计接待游客10万多人，实现旅游综合收入200多万元。同时，该村还全力推进“三变”改革，动员131户农户将144亩采摘园入股公司，形成“贫困户+乡村旅游”、“村委会+合作社”利益联结机制，累计兑现群众分红15.68万元，村集体分红2.6万元。', '泾川县城关镇凤凰村属全省乡村旅游示范村和国家AAA级旅游景区。近年来，该村积极争取项目资金，整合易地搬迁、危房改造、道路通畅等项目，全面完成自来水入户、农电网改造和宽带网络覆盖工程，按照“企业+合作社+农户”的模式，组建泾秀旅游服务专业合作社，全力打造旅游综合服务村。2017年投入运营以来，年均接待游客28万人（次），旅游综合收入累计达800多万元，解决了本村100多人就业问题。', '合水县肖咀镇和段家集乡把农村人居环境改善作为“后脱贫攻坚时代”实施乡村振兴战略的第一场硬仗，因地制宜、因利是导建设美丽乡村，从点到线发展全域旅游，打造画廊式旅游风情线，从绿水青山的“软实力”向金山银山经济增长转变。', '同时，合水县还把棚户区改造作为改善城市面貌和人居环境，补齐城市规划建设短板，破解城市经菅管理困境的重大民生工程。2014-2020年，先后实施完成了39个片区5731户的棚户区改造，完成投资32.81亿元，腾空土地3600余亩，2019年，被评为全省棚户区改造工作先进县。', '考察结束后，毛鸿博说，选择到泾川县和合水县考察学习美丽乡村建设和城乡环境治理工作，就是要跳出镇原看镇原，直观感受兄弟县区竞相发展的态势，让广大干部开阔视野，解放思想，转变观念。参加考察学习的各乡镇和相关部门负责人要以先进的理念思路、方法路径、作风干劲，找准弱项短板，理清发展思路，把适合种什么、养什么，建什么镌刻在脑海中，一届接着一届干，一张蓝图绘到底。在城镇建设中，各相关部门要以增强带动效应、提升城市品位和活力为依托，拉升县城常住人口比例，拉动城市内需消费，让城镇成为经济增长”热点“，让更多的群众享受更好的基本公共服务。要大力推进环境综合整治常态化行动，提高森林覆盖率，把身边的环境美化好，美丽乡村建设好，让乡村成为产业兴旺、生态宜居、乡风文明、治理有效、生活富裕的宜居家园。', '县政协主席慕瑶，县委常委、常务副县长冯毅，县人大常委会副主任罗金海，副县长黄一文，县政协副主席潘应鹏，各乡镇书记、乡（镇）长，县直相关部门负责人共计59人参加考察学习。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>284</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>黄泽元率团赴南开大学考察学习对接陇东学院与南开大学建立合作有关事宜</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_196470</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['黄泽元率团赴南开大学考察学习对接陇东学院与南开大学建立合作有关事宜_政务要闻_庆阳动态_政务_庆阳市人民政府', '10月13日下午，市委书记黄泽元率团赴南开大学考察学习，就陇东学院与南开大学建立合作有关事宜进行深入沟通交流。', '南开大学常务副校长许京军，天津市南开区委书记杨兵出席座谈会并讲话。陇东学院党委书记曹复兴、院长辛刚国和党委委员、副院长刘万锋分别就加强沟通协作有关事宜作了发言。', '黄泽元介绍了庆阳市的发展概况、特色优势及庆阳市与南开区开展东西部协作等情况。他说，庆阳文化厚重、资源富集，被誉为“红色圣地、岐黄故里、农耕之源、能源新都”。当前，庆阳正处于“十四五”开局的关键时期、推进高质量发展的重要时期，离不开高端的智力支持与科技支撑。陇东学院作为庆阳唯一一所本科高等院校，学校的发展是庆阳市发展的重要组成部分，庆阳市委、市政府将全力支持陇东学院与南开大学建立联系、开展合作。希望两所学校在人才培养、学科建设、学位点建设等方面开展交流合作，借助南开大学的学科优势和强大平台，提升陇东学院办学水平，助推老区经济社会高质量发展。', '许京军向黄泽元一行表示欢迎，并介绍了南开大学的办学历史、“一校三区”办学格局、学科建设等基本情况。他说，南开大学与甘肃省有着深厚渊源，虽然与陇东学院相隔千里，但具有携手合作的良好发展前景。学校将在天津市委、市政府和南开区委、区政府的指导下，充分发挥自身优势，全力配合、认真推进与陇东学院的合作，支持和帮助陇东学院提升办学质量和水平。', '杨兵对黄泽元一行表示欢迎。他说，南开区将发挥桥梁纽带作用，积极推进南开大学与陇东学院沟通协作，为双方开辟更加广阔的合作空间，不断提升东西部协作工作成效。', '天津市合作交流办副主任王东;南开大学党委副书记曲凯，党委常委、学校办公室主任于海;天津市南开区委副书记、区长孙剑楠，区委常委、副区长聂伟迅;庆阳市领导盛云峰、张伟波、石福胜、王保民参加座谈。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>284</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>庆阳市赴陇南市两当县天水市清水县考察学习国家生态文明建设示范区和两山实践创新基地创建先进经验</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_242697</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['庆阳市赴陇南市两当县 天水市清水县考察学习国家生态文明建设示范区和“两山”实践创新基地创建先进经验_部门动态_政务_庆阳市人民政府', '庆阳市赴陇南市两当县 天水市清水县考察学习国家生态文明建设示范区和“两山”实践创新基地创建先进经验', '为做好庆阳市国家生态文明建设示范区和“两山”实践创新基地的创建工作，进一步提升全市生态文明示范创建能力和水平，谋求新突破、打造新优势，3月1日-4日，庆阳市生态环境局组织华池和正宁县委、县政府分管生态环境保护工作的领导及生态环境分局局长、有关负责同志组成考察组，赴兄弟市州陇南市两当县、天水市清水县学习考察国家生态文明建设示范区和“两山”实践创新基地创建方面的先进经验。', '考察组首先在两当县生态环境分局座谈听取了“两山”创建工作经验并观看专题片，面对面讨论交流了“两山”实践创新基地建设工作经验、困难和问题，实地考察调研了“两山”转化的先进典型经验模式，重点学习了两当如何秉承“两山”理念，大力发展生态旅游、生态农业，集中精力扮美“山水”两当靓丽名片，走出一条生态美、产业兴、百姓富的发展新路子。', '考察组一行在天水市清水县学习考察了国家生态文明建设示范区创建工作经验。在清水县生态环境分局，座谈听取了有关创建工作经验并观看了专题片，就创建工作组织推进、创建指标达标建设等面对面进行深入的探讨和交流，实地考察调研了乡村人居环境治理、生态康养融合发展等典型经验和模式，重点学习了清水县如何依托生态资源优势，走出一条“由治而美、由美而富、由富而谐”的绿色发展之路。', '“学如弓弩，才如箭镞。识以领之，方能中鹄。”通过此次外出实地考察学习，解放了思想、开阔了眼界、明晰了思路。下一步，全市将深入贯彻落实党的二十大精神，以此次外出考察学习为契机，在全域范围内充分学习借鉴两当和清水的先进经验，结合庆阳实际，因地制宜，深入挖掘庆阳区域特色优势资源，持续推进国家生态文明建设示范区和“两山”实践创新基地创建，协同推进经济高质量发展和生态环境高水平保护，为全面建设人与自然和谐共生的美丽庆阳奠定坚实基础。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>284</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>走出去考察项目实打实谋发展正宁县党政考察团赴武威张掖考察学习</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/xqdt/content_219392</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['走出去考察项目 实打实谋发展——正宁县党政考察团赴武威、张掖考察学习_县区动态_政务_庆阳市人民政府', '近日，正宁县委、县政府带着如何加快乡村振兴步伐，如何发展壮大农业产业，如何强化县域经济的问题，组织县乡村振兴局、农业农村局、各乡镇、企业、合作社及重点村负责人30多人到本省武威市、张掖市考察学习，县委副书记段军亮、县政府副县长白东怀带队。', '考察组先后考察了武威伊利绿色生产及智能制造示范应用项目，武威众兴菌业科技有限公司食用菌工厂化生产循环经济产业园，武威市顶乐生态牧业有限公司牛羊集散服务中心，甘肃神农珍稀菇业有限公司食用菌栽培加工包装车间，甘肃祁连牧歌实业有限公司肉牛屠宰加工营销情况及张掖市临泽县现代丝路寒旱农业产业园建设情况，临泽县鸭暖镇屯泉田园综合体建设项目等项目22个。', '考察团通过听取企业、合作社、示范园负责人汇报介绍和现场观摩，以及与当地党政领导座谈等方式深入了解当地乡村建设、产业发展、乡村治理等情况。', '考察学习中，大家耳闻目睹，边学边议，倍受启发，进一步解放了思想，开阔了眼界，看到了差距，学到了经验，增加了加快乡村振兴及农业产业化经营的紧迫感和责任感。', '考察团认为，考察地在助推乡村振兴、发展现代农业、城乡融合发展、打造田园综合体等方面，发展理念新颖，起点规划高，城市面貌日新月异，经济转型发展不断实现新突破，各项事业稳步推进，人民幸福指数不断提高。', '考察团表示，要认真学习考察地的先进经验和成功做法，对标先进找差距、明晰思路定措施、鼓足干劲抓落实，进一步解放思想、拓宽视野，真正把考察学习的成果转化为干事创业的强大动力，加强与考察地沟通交流合作，拓展合作渠道，不断巩固优势互补、共赢发展的良好局面，携手推动两地经济社会高质量发展。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>284</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>宝鸡市冯家山水库管理局局长张新弟一行考察学习巴家咀水库管理及清淤工程建设经验</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/bmdt/content_241917</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['宝鸡市冯家山水库管理局局长张新弟一行考察学习巴家咀水库管理及清淤工程建设经验_部门动态_政务_庆阳市人民政府', '3月1日，陕西省宝鸡市冯家山水库管理局局长张新弟一行18人在庆阳市水务局副局长柴世伟及庆阳市巴家咀水库管理所领导班子陪同下考察学习巴家咀水库清淤工程建设经验。', '冯家山水库管理局一行人来到巴家咀水库，参观了巴家咀水库大坝及附属建筑物、巴家咀水库清淤工程和巴家咀水库除险加固工程建设现场，重点对巴家咀水库清淤项目中的南峁沟拦沙坝和人工清淤船-清源一号工作过程进行了学习，庆阳市水务局副局长柴世伟及庆阳市巴家咀水库管理所负责人详细介绍了巴家咀水库基本情况，巴家咀水库清淤项目建设背景、建设内容、建设进度及成效。随后参观并了解了巴家咀水库除险加固工程。', '巴家咀水库清淤项目和除险加固工程艰苦的建设环境，给管理局参观人员留下了深刻的印象。参观人员表示，工程建设任务艰巨，工作条件艰苦，而巴家咀水库工作人员能严把质量关、细节关，稳步推进工程建设，值得管理局学习。巴家咀水库管理所负责人也表示希望双方在今后的工作中加强学习、互相借鉴、共同发展。', '参观过程中，庆阳市巴家咀水库管理所与宝鸡市冯家山水库管理局从调度运行、防汛抗旱、制度管理、安全监测、工程建设等多个方面进行了交流学习。通过交流学习，汲取了两处在组织管理、安全管理、运行管理及经济管理方面好的工作做法和先进的管理经验，为进一步提升大中型水库工程管理水平提供了有利参考。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>284</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>庆阳市党政代表团赴平凉市考察学习两市签署战略合作协议王旭黄泽元讲话白振海周继军介绍有关情况</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-06-04</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/zw/qydt/zwyw/content_252886</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['庆阳市党政代表团赴平凉市考察学习 两市签署战略合作协议 王旭黄泽元讲话 白振海周继军介绍有关情况_政务要闻_庆阳动态_政务_庆阳市人民政府', '庆阳市党政代表团赴平凉市考察学习 两市签署战略合作协议 王旭黄泽元讲话 白振海周继军介绍有关情况', '6月2日至3日，庆阳市党政代表团赴平凉市考察学习项目建设、农业产业化、文化旅游等工作，共叙深厚友谊，共谋交流合作，共话发展蓝图。3日下午，举行了考察座谈会，签署《庆阳市人民政府与平凉市人民政府战略合作协议》，共商两市深化合作事宜，携手推进高质量发展。', '平凉市委书记王旭、庆阳市委书记黄泽元讲话。平凉市委副书记、市长白振海，庆阳市委副书记、市长周继军分别介绍两市市情和经济社会发展情况，并代表双方签约。', '王旭代表平凉市委、市人大常委会、市政府、市政协向代表团一行到平考察表示欢迎，对庆阳市长期以来给予平凉的关心支持表示感谢。她说，在我们深入学习贯彻党的二十大精神，奋力推进高质量发展之际，庆阳市党政代表团来平考察指导、传经送宝，必将有力开创两市合作发展新局面。近年来，庆阳市委、市政府深入贯彻落实习近平总书记对甘肃重要讲话重要指示批示精神，团结带领庆阳人民赓续红色基因、传承南梁精神，勇毅前行，创新实干，经济社会发展取得了令人瞩目的成就，值得我们学习借鉴。平凉和庆阳地缘相接、人文相亲、习俗相似，交流交往广泛、互动合作良好，联动性、互补性、协同性很强。站在新的起点上，平庆两市共同肩负着省委赋予的“平庆率先发展”“打造陇东南经济带”的时代使命，共同承担着筑牢陇东黄土高原地区生态安全屏障和建设陇东综合能源基地的政治责任。希望以此次考察为契机，在陇东综合能源基地建设、培育壮大特色优势产业、重大基础设施建设等方面加强协作交流，进一步扩大友好往来，促进互利共赢，共同打造陇东新的增长极。', '黄泽元代表市委、市人大常委会、市政府、市政协对平凉市长期以来给予庆阳工作的大力支持表示感谢。他说，平凉与庆阳同属陇东，地相连、山相近、水相通，在长期的发展中，两地相互支持、相互帮扶，结下了深厚友谊。', '这次考察学习是一次“走近亲、学真经、强合作”之行，我们深切感受到平凉农业产业化水平高、文旅全域成效实、招商引资规模大、干部群众劲头足，我们看到了一个自然生态欣欣向荣、经济发展生机勃勃、各项事业蒸蒸日上的平凉。平凉经济社会发展取得的成就，创造了许多先进典型，为庆阳提供了可复制的成功经验。希望两地把合作事项落到实处，以更高交通设施的通达性和便捷性、区域市场的开放性和包容度、党政沟通的常态化和务实性，让两地互通水平更高；共同打造陇东文化品牌，共同建设陇东经济板块，共同提升陇东比较优势，让两地互联范围更广；组建工作专班，以“大格局、小切口”共谋项目、互参节会、共享要素，以“大范围、多层次”促进市级党政、县（区）、部门、行业、企业、社会组织之间形成紧密互动和联系，让两地互促成效更实。我们诚邀平凉市党政代表团来庆考察交流，扩大合作领域，强化合作举措，深化合作机制，在新征程上实现庆平两地携手共进、共同发展。', '座谈会上，庆阳市农业农村局、交通运输局、文体广电和旅游局分别与平凉市相关部门签署合作协议。', '在平期间，代表团一行前往泾川县、崆峒区、静宁县，考察了平凉红牛鼎康肉牛育肥厂、泾河川万亩现代农业产业园、平凉国维年加工150万吨玉米生产淀粉项目、海创能源科技公司生活垃圾焚烧发电和餐厨垃圾处理项目、平凉市体育运动公园项目、平凉博物馆、葫芦河流域现代苹果产业示范带、德美地缘冷链物流产业园暨静宁苹果期货交割库、甘沟镇产业融合经济示范园暨昊康牧业肉牛养殖基地。', '平凉市领导宋全科、王琳玺、胡雄韬、王锦、王晓军、丁富强、杨恭及李强、汝登国，庆阳市领导董涛、霍子俊、宋树红、张希岳、石福胜、杨廷祯、吴宝定及刘选明参加。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>284</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>庆阳市党政代表团赴平凉市考察学习两市签署战略合作协议王旭黄泽元讲话白振海周继军介绍有关情况</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.zgqingyang.gov.cn/gk/zfxxgk/zfxxgkml/jccayjzjfk/content_21133</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['庆阳市党政代表团赴平凉市考察学习 两市签署战略合作协议 王旭黄泽元讲话 白振海周继军介绍有关情况_决策草案意见征集反馈_法定主动公开内容_政府信息公开_政务公开_庆阳市人民政府', '庆阳市党政代表团赴平凉市考察学习 两市签署战略合作协议 王旭黄泽元讲话 白振海周继军介绍有关情况', '6月2日至3日，庆阳市党政代表团赴平凉市考察学习项目建设、农业产业化、文化旅游等工作，共叙深厚友谊，共谋交流合作，共话发展蓝图。3日下午，举行了考察座谈会，签署《庆阳市人民政府与平凉市人民政府战略合作协议》，共商两市深化合作事宜，携手推进高质量发展。', '平凉市委书记王旭、庆阳市委书记黄泽元讲话。平凉市委副书记、市长白振海，庆阳市委副书记、市长周继军分别介绍两市市情和经济社会发展情况，并代表双方签约。', '王旭代表平凉市委、市人大常委会、市政府、市政协向代表团一行到平考察表示欢迎，对庆阳市长期以来给予平凉的关心支持表示感谢。她说，在我们深入学习贯彻党的二十大精神，奋力推进高质量发展之际，庆阳市党政代表团来平考察指导、传经送宝，必将有力开创两市合作发展新局面。近年来，庆阳市委、市政府深入贯彻落实习近平总书记对甘肃重要讲话重要指示批示精神，团结带领庆阳人民赓续红色基因、传承南梁精神，勇毅前行，创新实干，经济社会发展取得了令人瞩目的成就，值得我们学习借鉴。平凉和庆阳地缘相接、人文相亲、习俗相似，交流交往广泛、互动合作良好，联动性、互补性、协同性很强。站在新的起点上，平庆两市共同肩负着省委赋予的“平庆率先发展”“打造陇东南经济带”的时代使命，共同承担着筑牢陇东黄土高原地区生态安全屏障和建设陇东综合能源基地的政治责任。希望以此次考察为契机，在陇东综合能源基地建设、培育壮大特色优势产业、重大基础设施建设等方面加强协作交流，进一步扩大友好往来，促进互利共赢，共同打造陇东新的增长极。', '黄泽元代表市委、市人大常委会、市政府、市政协对平凉市长期以来给予庆阳工作的大力支持表示感谢。他说，平凉与庆阳同属陇东，地相连、山相近、水相通，在长期的发展中，两地相互支持、相互帮扶，结下了深厚友谊。', '这次考察学习是一次“走近亲、学真经、强合作”之行，我们深切感受到平凉农业产业化水平高、文旅全域成效实、招商引资规模大、干部群众劲头足，我们看到了一个自然生态欣欣向荣、经济发展生机勃勃、各项事业蒸蒸日上的平凉。平凉经济社会发展取得的成就，创造了许多先进典型，为庆阳提供了可复制的成功经验。希望两地把合作事项落到实处，以更高交通设施的通达性和便捷性、区域市场的开放性和包容度、党政沟通的常态化和务实性，让两地互通水平更高；共同打造陇东文化品牌，共同建设陇东经济板块，共同提升陇东比较优势，让两地互联范围更广；组建工作专班，以“大格局、小切口”共谋项目、互参节会、共享要素，以“大范围、多层次”促进市级党政、县（区）、部门、行业、企业、社会组织之间形成紧密互动和联系，让两地互促成效更实。我们诚邀平凉市党政代表团来庆考察交流，扩大合作领域，强化合作举措，深化合作机制，在新征程上实现庆平两地携手共进、共同发展。', '座谈会上，庆阳市农业农村局、交通运输局、文体广电和旅游局分别与平凉市相关部门签署合作协议。', '在平期间，代表团一行前往泾川县、崆峒区、静宁县，考察了平凉红牛鼎康肉牛育肥厂、泾河川万亩现代农业产业园、平凉国维年加工150万吨玉米生产淀粉项目、海创能源科技公司生活垃圾焚烧发电和餐厨垃圾处理项目、平凉市体育运动公园项目、平凉博物馆、葫芦河流域现代苹果产业示范带、德美地缘冷链物流产业园暨静宁苹果期货交割库、甘沟镇产业融合经济示范园暨昊康牧业肉牛养殖基地。', '平凉市领导宋全科、王琳玺、胡雄韬、王锦、王晓军、丁富强、杨恭及李强、汝登国，庆阳市领导董涛、霍子俊、宋树红、张希岳、石福胜、杨廷祯、吴宝定及刘选明参加。', '主办单位：甘肃省庆阳市人民政府办公室 备案编号：陇ICP备2024010890号-1']</t>
         </is>
